--- a/sriramModel-nelson-melancholic-patientID_33-sims-gr-5-iterations.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_33-sims-gr-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.003335913575386</v>
+        <v>2.020065478557986</v>
       </c>
       <c r="C2">
-        <v>2.004158927142574</v>
+        <v>2.00316014451953</v>
       </c>
       <c r="D2">
-        <v>2.042796792051279</v>
+        <v>2.004809171103537</v>
       </c>
       <c r="E2">
-        <v>2.00706817894245</v>
+        <v>2.00322150660211</v>
       </c>
       <c r="F2">
-        <v>1.999565245027304</v>
+        <v>2.035849528513357</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.006727467010283</v>
+        <v>2.040304143389644</v>
       </c>
       <c r="C3">
-        <v>2.008385288228609</v>
+        <v>2.006375704853646</v>
       </c>
       <c r="D3">
-        <v>2.085729761932772</v>
+        <v>2.009698102537856</v>
       </c>
       <c r="E3">
-        <v>2.014235969720497</v>
+        <v>2.006499107338445</v>
       </c>
       <c r="F3">
-        <v>1.999165971019643</v>
+        <v>2.071933858126464</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.010175523832507</v>
+        <v>2.060706170553338</v>
       </c>
       <c r="C4">
-        <v>2.012678526638888</v>
+        <v>2.009647174774795</v>
       </c>
       <c r="D4">
-        <v>2.128790315233041</v>
+        <v>2.014666430141943</v>
       </c>
       <c r="E4">
-        <v>2.021500994085924</v>
+        <v>2.009833621057337</v>
       </c>
       <c r="F4">
-        <v>1.998802008081727</v>
+        <v>2.108247351858289</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.013681024492856</v>
+        <v>2.081262629310327</v>
       </c>
       <c r="C5">
-        <v>2.017038253607212</v>
+        <v>2.012975167954169</v>
       </c>
       <c r="D5">
-        <v>2.171971136389686</v>
+        <v>2.019713960095061</v>
       </c>
       <c r="E5">
-        <v>2.028861163950606</v>
+        <v>2.013225967742086</v>
       </c>
       <c r="F5">
-        <v>1.998473305344497</v>
+        <v>2.14478517838424</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.017245002768037</v>
+        <v>2.101965469126157</v>
       </c>
       <c r="C6">
-        <v>2.021464245983242</v>
+        <v>2.016360423539396</v>
       </c>
       <c r="D6">
-        <v>2.215266095748828</v>
+        <v>2.02484067938288</v>
       </c>
       <c r="E6">
-        <v>2.036314684756853</v>
+        <v>2.016677176111174</v>
       </c>
       <c r="F6">
-        <v>1.998179932858073</v>
+        <v>2.181543273367084</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.020868579326778</v>
+        <v>2.122807476120643</v>
       </c>
       <c r="C7">
-        <v>2.025956444429126</v>
+        <v>2.01980380605632</v>
       </c>
       <c r="D7">
-        <v>2.258670183252934</v>
+        <v>2.03004674852418</v>
       </c>
       <c r="E7">
-        <v>2.043860041162808</v>
+        <v>2.020188384984676</v>
       </c>
       <c r="F7">
-        <v>1.997922082129258</v>
+        <v>2.218518306959765</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.02455297072547</v>
+        <v>2.143782264130717</v>
       </c>
       <c r="C8">
-        <v>2.03051495378112</v>
+        <v>2.023306307859879</v>
       </c>
       <c r="D8">
-        <v>2.302179411818463</v>
+        <v>2.035332505898154</v>
       </c>
       <c r="E8">
-        <v>2.051495996564734</v>
+        <v>2.023760846400507</v>
       </c>
       <c r="F8">
-        <v>1.997700069124799</v>
+        <v>2.255707635740076</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.028299498189221</v>
+        <v>2.16488426466457</v>
       </c>
       <c r="C9">
-        <v>2.035140042772022</v>
+        <v>2.026869052070082</v>
       </c>
       <c r="D9">
-        <v>2.345790739782267</v>
+        <v>2.040698460108676</v>
       </c>
       <c r="E9">
-        <v>2.059221589770763</v>
+        <v>2.027395924515633</v>
       </c>
       <c r="F9">
-        <v>1.99751433679797</v>
+        <v>2.293109268936194</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.032109586694134</v>
+        <v>2.186108705142301</v>
       </c>
       <c r="C10">
-        <v>2.039832144253344</v>
+        <v>2.030493295972035</v>
       </c>
       <c r="D10">
-        <v>2.389502003381684</v>
+        <v>2.046145301291075</v>
       </c>
       <c r="E10">
-        <v>2.067036134665553</v>
+        <v>2.031095107766292</v>
       </c>
       <c r="F10">
-        <v>1.997365457315027</v>
+        <v>2.33072183519548</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.035984768327062</v>
+        <v>2.207451590757273</v>
       </c>
       <c r="C11">
-        <v>2.044591856043749</v>
+        <v>2.034180434885778</v>
       </c>
       <c r="D11">
-        <v>2.433311848250441</v>
+        <v>2.051673900074622</v>
       </c>
       <c r="E11">
-        <v>2.07493921774595</v>
+        <v>2.03486001158318</v>
       </c>
       <c r="F11">
-        <v>1.997254134257716</v>
+        <v>2.368544549611424</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.03992668936183</v>
+        <v>2.228909693107205</v>
       </c>
       <c r="C12">
-        <v>2.049419942364886</v>
+        <v>2.037932006613449</v>
       </c>
       <c r="D12">
-        <v>2.477219660594375</v>
+        <v>2.057285310418238</v>
       </c>
       <c r="E12">
-        <v>2.082930696796155</v>
+        <v>2.038692382507778</v>
       </c>
       <c r="F12">
-        <v>1.997181205806569</v>
+        <v>2.406577182018665</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.043937114766714</v>
+        <v>2.250480542561098</v>
       </c>
       <c r="C13">
-        <v>2.054317335771107</v>
+        <v>2.041749696155559</v>
       </c>
       <c r="D13">
-        <v>2.521225506049585</v>
+        <v>2.06298077185047</v>
       </c>
       <c r="E13">
-        <v>2.091010700723229</v>
+        <v>2.04259410362625</v>
       </c>
       <c r="F13">
-        <v>1.997147648099779</v>
+        <v>2.444820026920265</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.048017935333752</v>
+        <v>2.272162420958145</v>
       </c>
       <c r="C14">
-        <v>2.05928513959725</v>
+        <v>2.045635341632577</v>
       </c>
       <c r="D14">
-        <v>2.565330068582366</v>
+        <v>2.068761712595415</v>
       </c>
       <c r="E14">
-        <v>2.09917963074474</v>
+        <v>2.046567201373549</v>
       </c>
       <c r="F14">
-        <v>1.997154578765686</v>
+        <v>2.483273876796271</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.052171173794064</v>
+        <v>2.29395435304932</v>
       </c>
       <c r="C15">
-        <v>2.064324631257893</v>
+        <v>2.049590941317577</v>
       </c>
       <c r="D15">
-        <v>2.609534597411106</v>
+        <v>2.074629754340538</v>
       </c>
       <c r="E15">
-        <v>2.107438162074124</v>
+        <v>2.050613857996085</v>
       </c>
       <c r="F15">
-        <v>1.997203260628828</v>
+        <v>2.521939995273294</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.056398989823877</v>
+        <v>2.315856101604611</v>
       </c>
       <c r="C16">
-        <v>2.069437266023203</v>
+        <v>2.05361866101354</v>
       </c>
       <c r="D16">
-        <v>2.65384085010764</v>
+        <v>2.080586717480293</v>
       </c>
       <c r="E16">
-        <v>2.115787243379968</v>
+        <v>2.0547364006532</v>
       </c>
       <c r="F16">
-        <v>1.997295105393446</v>
+        <v>2.560820094773824</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.060703694375324</v>
+        <v>2.337868160604116</v>
       </c>
       <c r="C17">
-        <v>2.074624681640213</v>
+        <v>2.057720842073016</v>
       </c>
       <c r="D17">
-        <v>2.698251050308867</v>
+        <v>2.086634627015909</v>
       </c>
       <c r="E17">
-        <v>2.124228104191516</v>
+        <v>2.058937330219275</v>
       </c>
       <c r="F17">
-        <v>1.997431677731879</v>
+        <v>2.599916317239762</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.065087756453763</v>
+        <v>2.359991752110053</v>
       </c>
       <c r="C18">
-        <v>2.079888702072933</v>
+        <v>2.061900010601569</v>
       </c>
       <c r="D18">
-        <v>2.742767845817245</v>
+        <v>2.092775723042382</v>
       </c>
       <c r="E18">
-        <v>2.132762257871281</v>
+        <v>2.063219322143235</v>
       </c>
       <c r="F18">
-        <v>1.997614700234011</v>
+        <v>2.639231214535374</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.069553810708272</v>
+        <v>2.382228832610122</v>
       </c>
       <c r="C19">
-        <v>2.085231347407197</v>
+        <v>2.066158888571009</v>
       </c>
       <c r="D19">
-        <v>2.787394262407509</v>
+        <v>2.099012456532154</v>
       </c>
       <c r="E19">
-        <v>2.141391507837099</v>
+        <v>2.067585245476264</v>
       </c>
       <c r="F19">
-        <v>1.997846058748344</v>
+        <v>2.678767731494529</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.074104668972508</v>
+        <v>2.404582080281207</v>
       </c>
       <c r="C20">
-        <v>2.090654834539415</v>
+        <v>2.070500404983455</v>
       </c>
       <c r="D20">
-        <v>2.83213366673343</v>
+        <v>2.105347516687112</v>
       </c>
       <c r="E20">
-        <v>2.150117953733166</v>
+        <v>2.07203816668556</v>
       </c>
       <c r="F20">
-        <v>1.998127807009833</v>
+        <v>2.7185291952279</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.078743335509442</v>
+        <v>2.427054923006033</v>
       </c>
       <c r="C21">
-        <v>2.096161593448717</v>
+        <v>2.074927710000403</v>
       </c>
       <c r="D21">
-        <v>2.876989739637651</v>
+        <v>2.111783812972154</v>
       </c>
       <c r="E21">
-        <v>2.15894399902768</v>
+        <v>2.076581362444758</v>
       </c>
       <c r="F21">
-        <v>1.998462173550334</v>
+        <v>2.758519308041557</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.0834730204322</v>
+        <v>2.449651517058663</v>
       </c>
       <c r="C22">
-        <v>2.101754269591126</v>
+        <v>2.079444184819206</v>
       </c>
       <c r="D22">
-        <v>2.921966453107013</v>
+        <v>2.11832451870864</v>
       </c>
       <c r="E22">
-        <v>2.167872360928132</v>
+        <v>2.081218334610952</v>
       </c>
       <c r="F22">
-        <v>1.998851567093525</v>
+        <v>2.798742143794895</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.088297148163114</v>
+        <v>2.472376788925974</v>
       </c>
       <c r="C23">
-        <v>2.107435738480472</v>
+        <v>2.084053460461937</v>
       </c>
       <c r="D23">
-        <v>2.967068051295891</v>
+        <v>2.124973053990026</v>
       </c>
       <c r="E23">
-        <v>2.176906081863716</v>
+        <v>2.085952824735635</v>
       </c>
       <c r="F23">
-        <v>1.999298583530455</v>
+        <v>2.839202149663769</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.09321937956015</v>
+        <v>2.495236416601263</v>
       </c>
       <c r="C24">
-        <v>2.113209117465774</v>
+        <v>2.088759438572384</v>
       </c>
       <c r="D24">
-        <v>3.012299039716001</v>
+        <v>2.131733123808543</v>
       </c>
       <c r="E24">
-        <v>2.186048542153795</v>
+        <v>2.090788835216243</v>
       </c>
       <c r="F24">
-        <v>1.999806015764069</v>
+        <v>2.879904148336594</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.098243631059676</v>
+        <v>2.518236874485192</v>
       </c>
       <c r="C25">
-        <v>2.119077774133727</v>
+        <v>2.093566311988964</v>
       </c>
       <c r="D25">
-        <v>3.057664171031211</v>
+        <v>2.13860871733259</v>
       </c>
       <c r="E25">
-        <v>2.195303476378289</v>
+        <v>2.095730647261195</v>
       </c>
       <c r="F25">
-        <v>2.000376857511109</v>
+        <v>2.920853360084046</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.103374096384002</v>
+        <v>2.541385426460714</v>
       </c>
       <c r="C26">
-        <v>2.12504534912955</v>
+        <v>2.098478584474441</v>
       </c>
       <c r="D26">
-        <v>3.103168466281465</v>
+        <v>2.145604131309385</v>
       </c>
       <c r="E26">
-        <v>2.20467498870297</v>
+        <v>2.100782841792855</v>
       </c>
       <c r="F26">
-        <v>2.001014318392777</v>
+        <v>2.962055393960359</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.108615256279302</v>
+        <v>2.564690169994837</v>
       </c>
       <c r="C27">
-        <v>2.131115764626233</v>
+        <v>2.103501096147858</v>
       </c>
       <c r="D27">
-        <v>3.148817178870818</v>
+        <v>2.152723989840839</v>
       </c>
       <c r="E27">
-        <v>2.214167572910928</v>
+        <v>2.105950322765191</v>
       </c>
       <c r="F27">
-        <v>2.001721827061553</v>
+        <v>3.003516310736116</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.113971917850633</v>
+        <v>2.588160045215468</v>
       </c>
       <c r="C28">
-        <v>2.137293249775988</v>
+        <v>2.108639049572594</v>
       </c>
       <c r="D28">
-        <v>3.194615879398268</v>
+        <v>2.159973255863531</v>
       </c>
       <c r="E28">
-        <v>2.223786131557406</v>
+        <v>2.111238342810912</v>
       </c>
       <c r="F28">
-        <v>2.002503048251819</v>
+        <v>3.045242621993113</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.11944923875012</v>
+        <v>2.611804877339463</v>
       </c>
       <c r="C29">
-        <v>2.143582359553699</v>
+        <v>2.113898043994564</v>
       </c>
       <c r="D29">
-        <v>3.24057041624464</v>
+        <v>2.167357269876253</v>
       </c>
       <c r="E29">
-        <v>2.233536004881863</v>
+        <v>2.116652533504323</v>
       </c>
       <c r="F29">
-        <v>2.003361888509026</v>
+        <v>3.087241357814186</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.125052762822126</v>
+        <v>2.635635406403981</v>
       </c>
       <c r="C30">
-        <v>2.149987994324837</v>
+        <v>2.119284109991681</v>
       </c>
       <c r="D30">
-        <v>3.286687020341241</v>
+        <v>2.174881756182922</v>
       </c>
       <c r="E30">
-        <v>2.243422993076073</v>
+        <v>2.1221989377077</v>
       </c>
       <c r="F30">
-        <v>2.004302513733315</v>
+        <v>3.129520126768167</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.130788431553199</v>
+        <v>2.659663323922314</v>
       </c>
       <c r="C31">
-        <v>2.156515436796833</v>
+        <v>2.124803749915861</v>
       </c>
       <c r="D31">
-        <v>3.332972328240463</v>
+        <v>2.182552875681357</v>
       </c>
       <c r="E31">
-        <v>2.253453399248535</v>
+        <v>2.12788404611124</v>
       </c>
       <c r="F31">
-        <v>2.005329359983886</v>
+        <v>3.172087145716018</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.136662652223618</v>
+        <v>2.683901332204879</v>
       </c>
       <c r="C32">
-        <v>2.163170367627853</v>
+        <v>2.130463980316126</v>
       </c>
       <c r="D32">
-        <v>3.379433442214301</v>
+        <v>2.190377234423588</v>
       </c>
       <c r="E32">
-        <v>2.263634049207399</v>
+        <v>2.133714836164782</v>
       </c>
       <c r="F32">
-        <v>2.006447149122989</v>
+        <v>3.214951370819965</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.142682332162789</v>
+        <v>2.708363166800087</v>
       </c>
       <c r="C33">
-        <v>2.169958913936893</v>
+        <v>2.136272384520499</v>
       </c>
       <c r="D33">
-        <v>3.42607806767983</v>
+        <v>2.198361940206192</v>
       </c>
       <c r="E33">
-        <v>2.27397235729924</v>
+        <v>2.139698818778701</v>
       </c>
       <c r="F33">
-        <v>2.007660909471667</v>
+        <v>3.258122552126451</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.148854925304982</v>
+        <v>2.733063698760412</v>
       </c>
       <c r="C34">
-        <v>2.176887677265378</v>
+        <v>2.142237168003837</v>
       </c>
       <c r="D34">
-        <v>3.472914531024343</v>
+        <v>2.206514628686917</v>
       </c>
       <c r="E34">
-        <v>2.284476336322083</v>
+        <v>2.145844088472568</v>
       </c>
       <c r="F34">
-        <v>2.008975985253459</v>
+        <v>3.301611359725262</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.155188471348548</v>
+        <v>2.758018933475677</v>
       </c>
       <c r="C35">
-        <v>2.183963776403691</v>
+        <v>2.148367223809347</v>
       </c>
       <c r="D35">
-        <v>3.519952005088644</v>
+        <v>2.214843513504295</v>
       </c>
       <c r="E35">
-        <v>2.295154699735158</v>
+        <v>2.152159380479754</v>
       </c>
       <c r="F35">
-        <v>2.010398069826956</v>
+        <v>3.345429549458124</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.161691688218772</v>
+        <v>2.783246160619465</v>
       </c>
       <c r="C36">
-        <v>2.191194907088086</v>
+        <v>2.154672200776991</v>
       </c>
       <c r="D36">
-        <v>3.567200571934942</v>
+        <v>2.223357445065935</v>
       </c>
       <c r="E36">
-        <v>2.306016852928924</v>
+        <v>2.158654133994257</v>
       </c>
       <c r="F36">
-        <v>2.011933212581089</v>
+        <v>3.389590044206441</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.168374036029002</v>
+        <v>2.808763941518838</v>
       </c>
       <c r="C37">
-        <v>2.198589371521348</v>
+        <v>2.161162591669728</v>
       </c>
       <c r="D37">
-        <v>3.614671446892637</v>
+        <v>2.232065941512734</v>
       </c>
       <c r="E37">
-        <v>2.317073044194575</v>
+        <v>2.165338563474204</v>
       </c>
       <c r="F37">
-        <v>2.013587859538672</v>
+        <v>3.434107210449709</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.175245776600508</v>
+        <v>2.834592292556821</v>
       </c>
       <c r="C38">
-        <v>2.206156170834487</v>
+        <v>2.167849825087027</v>
       </c>
       <c r="D38">
-        <v>3.662377215629333</v>
+        <v>2.240979294544422</v>
       </c>
       <c r="E38">
-        <v>2.328334340122859</v>
+        <v>2.172223741887034</v>
       </c>
       <c r="F38">
-        <v>2.015368865036471</v>
+        <v>3.478997005642041</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.182318068035798</v>
+        <v>2.860752677055133</v>
       </c>
       <c r="C39">
-        <v>2.213905047660877</v>
+        <v>2.174746374439816</v>
       </c>
       <c r="D39">
-        <v>3.710331949950232</v>
+        <v>2.250108584104694</v>
       </c>
       <c r="E39">
-        <v>2.339812827224992</v>
+        <v>2.179321691445403</v>
       </c>
       <c r="F39">
-        <v>2.017283534578704</v>
+        <v>3.524277229349799</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.189603093743634</v>
+        <v>2.887268214525318</v>
       </c>
       <c r="C40">
-        <v>2.221846577376642</v>
+        <v>2.181865873754946</v>
       </c>
       <c r="D40">
-        <v>3.758551685613839</v>
+        <v>2.259465823021058</v>
       </c>
       <c r="E40">
-        <v>2.35152157888678</v>
+        <v>2.18664548902799</v>
       </c>
       <c r="F40">
-        <v>2.019339649390936</v>
+        <v>3.569967880263963</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.197114182644791</v>
+        <v>2.914163686332306</v>
       </c>
       <c r="C41">
-        <v>2.229992273078897</v>
+        <v>2.189223266056884</v>
       </c>
       <c r="D41">
-        <v>3.807054520001353</v>
+        <v>2.269063980977831</v>
       </c>
       <c r="E41">
-        <v>2.363474912962193</v>
+        <v>2.194209379718317</v>
       </c>
       <c r="F41">
-        <v>2.021545504129496</v>
+        <v>3.616091342214892</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.204865887429601</v>
+        <v>2.94146576544004</v>
       </c>
       <c r="C42">
-        <v>2.238354639641998</v>
+        <v>2.196834964495554</v>
       </c>
       <c r="D42">
-        <v>3.855861189506</v>
+        <v>2.278917147705963</v>
       </c>
       <c r="E42">
-        <v>2.375688356451844</v>
+        <v>2.202028915982832</v>
       </c>
       <c r="F42">
-        <v>2.02390995764378</v>
+        <v>3.662672913724836</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.212874153782977</v>
+        <v>2.969203045507584</v>
       </c>
       <c r="C43">
-        <v>2.24694735926903</v>
+        <v>2.204719038591362</v>
       </c>
       <c r="D43">
-        <v>3.904995359159451</v>
+        <v>2.289040597905959</v>
       </c>
       <c r="E43">
-        <v>2.388178969153043</v>
+        <v>2.210121110280948</v>
       </c>
       <c r="F43">
-        <v>2.026442454354257</v>
+        <v>3.709741154013666</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.221156570074861</v>
+        <v>2.997406281955994</v>
       </c>
       <c r="C44">
-        <v>2.25578535761103</v>
+        <v>2.212895420412735</v>
       </c>
       <c r="D44">
-        <v>3.954484111333808</v>
+        <v>2.299450949090484</v>
       </c>
       <c r="E44">
-        <v>2.400965313617005</v>
+        <v>2.218504610418992</v>
       </c>
       <c r="F44">
-        <v>2.029153108995701</v>
+        <v>3.757328333968159</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.229732560712325</v>
+        <v>3.026108455797999</v>
       </c>
       <c r="C45">
-        <v>2.264885005657046</v>
+        <v>2.221386164493222</v>
       </c>
       <c r="D45">
-        <v>4.00435856337131</v>
+        <v>2.310166317163666</v>
       </c>
       <c r="E45">
-        <v>2.414067858905129</v>
+        <v>2.227199900912264</v>
       </c>
       <c r="F45">
-        <v>2.032052720902869</v>
+        <v>3.805471169298462</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.238623584269682</v>
+        <v>3.055345012622523</v>
       </c>
       <c r="C46">
-        <v>2.274264294396532</v>
+        <v>2.230215738803679</v>
       </c>
       <c r="D46">
-        <v>4.054654483694918</v>
+        <v>2.321206424605276</v>
       </c>
       <c r="E46">
-        <v>2.427508935539419</v>
+        <v>2.236229526259103</v>
       </c>
       <c r="F46">
-        <v>2.035152879741186</v>
+        <v>3.854211135677339</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.247853412653808</v>
+        <v>3.085153970357362</v>
       </c>
       <c r="C47">
-        <v>2.283942979525298</v>
+        <v>2.239411365675419</v>
       </c>
       <c r="D47">
-        <v>4.105413019673145</v>
+        <v>2.332592910122139</v>
       </c>
       <c r="E47">
-        <v>2.441313255858423</v>
+        <v>2.245618363299157</v>
       </c>
       <c r="F47">
-        <v>2.03846599240282</v>
+        <v>3.903595556725717</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.257448470188336</v>
+        <v>3.115576140798575</v>
       </c>
       <c r="C48">
-        <v>2.293942937001611</v>
+        <v>2.24900340008815</v>
       </c>
       <c r="D48">
-        <v>4.156681408000631</v>
+        <v>2.344349365614422</v>
       </c>
       <c r="E48">
-        <v>2.455508075114863</v>
+        <v>2.255393923800333</v>
       </c>
       <c r="F48">
-        <v>2.042005395679327</v>
+        <v>3.953678243585379</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2.267438221144318</v>
+        <v>3.146655264196711</v>
       </c>
       <c r="C49">
-        <v>2.304288286586558</v>
+        <v>2.259025802449694</v>
       </c>
       <c r="D49">
-        <v>4.208513861680124</v>
+        <v>2.35650180210803</v>
       </c>
       <c r="E49">
-        <v>2.470123544420909</v>
+        <v>2.265586709857168</v>
       </c>
       <c r="F49">
-        <v>2.045785418700539</v>
+        <v>4.004520409667664</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2.27785561643378</v>
+        <v>3.178438244180878</v>
       </c>
       <c r="C50">
-        <v>2.315005857384221</v>
+        <v>2.269516686882179</v>
       </c>
       <c r="D50">
-        <v>4.260972538491355</v>
+        <v>2.36907866539019</v>
       </c>
       <c r="E50">
-        <v>2.485193081571575</v>
+        <v>2.276230604048742</v>
       </c>
       <c r="F50">
-        <v>2.049821481650516</v>
+        <v>4.056191655905951</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.288737622079095</v>
+        <v>3.210975284904803</v>
       </c>
       <c r="C51">
-        <v>2.326125409860835</v>
+        <v>2.280518958970402</v>
       </c>
       <c r="D51">
-        <v>4.314128550487915</v>
+        <v>2.38211141610913</v>
       </c>
       <c r="E51">
-        <v>2.500753831874789</v>
+        <v>2.287363350543692</v>
       </c>
       <c r="F51">
-        <v>2.054130231644661</v>
+        <v>4.108771049293878</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.300125833284855</v>
+        <v>3.244320043033576</v>
       </c>
       <c r="C52">
-        <v>2.337680239232589</v>
+        <v>2.292081038845231</v>
       </c>
       <c r="D52">
-        <v>4.368063112465707</v>
+        <v>2.395634777211364</v>
       </c>
       <c r="E52">
-        <v>2.516847192994361</v>
+        <v>2.299027095865366</v>
       </c>
       <c r="F52">
-        <v>2.058729595728737</v>
+        <v>4.162348358000846</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.312067201137654</v>
+        <v>3.278529770508463</v>
       </c>
       <c r="C53">
-        <v>2.34970762071128</v>
+        <v>2.304257741190574</v>
       </c>
       <c r="D53">
-        <v>4.422868640776812</v>
+        <v>2.409687170248284</v>
       </c>
       <c r="E53">
-        <v>2.533519380328975</v>
+        <v>2.311269010160817</v>
       </c>
       <c r="F53">
-        <v>2.063639012313323</v>
+        <v>4.217025293190582</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.324614879391996</v>
+        <v>3.313665392321635</v>
       </c>
       <c r="C54">
-        <v>2.362249393682661</v>
+        <v>2.317111330214595</v>
       </c>
       <c r="D54">
-        <v>4.478649848204836</v>
+        <v>2.424311167131892</v>
       </c>
       <c r="E54">
-        <v>2.550822203129442</v>
+        <v>2.324142009960395</v>
       </c>
       <c r="F54">
-        <v>2.068879463968948</v>
+        <v>4.272916764619405</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.337829206384958</v>
+        <v>3.349791545449751</v>
       </c>
       <c r="C55">
-        <v>2.375352677689479</v>
+        <v>2.330712712976071</v>
       </c>
       <c r="D55">
-        <v>4.535524725025272</v>
+        <v>2.439554046083402</v>
       </c>
       <c r="E55">
-        <v>2.568813851629042</v>
+        <v>2.337705547444528</v>
       </c>
       <c r="F55">
-        <v>2.074473767123031</v>
+        <v>4.330152084403818</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.351779140582181</v>
+        <v>3.386976539808968</v>
       </c>
       <c r="C56">
-        <v>2.38907070047412</v>
+        <v>2.345142712334053</v>
       </c>
       <c r="D56">
-        <v>4.593625343558528</v>
+        <v>2.455468419817865</v>
       </c>
       <c r="E56">
-        <v>2.587559802549106</v>
+        <v>2.352026597671433</v>
       </c>
       <c r="F56">
-        <v>2.080446639407534</v>
+        <v>4.388875998685397</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2.366543457715668</v>
+        <v>3.425292285344359</v>
       </c>
       <c r="C57">
-        <v>2.403463783677393</v>
+        <v>2.360493894650887</v>
       </c>
       <c r="D57">
-        <v>4.653098321712323</v>
+        <v>2.472112926646975</v>
       </c>
       <c r="E57">
-        <v>2.607133903040576</v>
+        <v>2.367180700785297</v>
       </c>
       <c r="F57">
-        <v>2.086825006307448</v>
+        <v>4.44924942810265</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.382212247032407</v>
+        <v>3.464813893834812</v>
       </c>
       <c r="C58">
-        <v>2.418600536414117</v>
+        <v>2.376872272064019</v>
       </c>
       <c r="D58">
-        <v>4.714104370444381</v>
+        <v>2.489553009638892</v>
       </c>
       <c r="E58">
-        <v>2.627619640557603</v>
+        <v>2.383253155927797</v>
       </c>
       <c r="F58">
-        <v>2.093638163042578</v>
+        <v>4.511449706033775</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.398889242283271</v>
+        <v>3.505619265564744</v>
       </c>
       <c r="C59">
-        <v>2.434559195921045</v>
+        <v>2.394399266220902</v>
       </c>
       <c r="D59">
-        <v>4.776817018866281</v>
+        <v>2.50786181959297</v>
       </c>
       <c r="E59">
-        <v>2.649111458382815</v>
+        <v>2.400340280396848</v>
       </c>
       <c r="F59">
-        <v>2.100918040741372</v>
+        <v>4.575669668165911</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.416693845011276</v>
+        <v>3.547788466581315</v>
       </c>
       <c r="C60">
-        <v>2.4514292112937</v>
+        <v>2.41321382368011</v>
       </c>
       <c r="D60">
-        <v>4.841420056908387</v>
+        <v>2.527121151905471</v>
       </c>
       <c r="E60">
-        <v>2.671716442882481</v>
+        <v>2.418550822414685</v>
       </c>
       <c r="F60">
-        <v>2.108699549326223</v>
+        <v>4.642115518197162</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2.435763436990689</v>
+        <v>3.591402840794485</v>
       </c>
       <c r="C61">
-        <v>2.469313093799562</v>
+        <v>2.433474535266269</v>
       </c>
       <c r="D61">
-        <v>4.908103082074596</v>
+        <v>2.547422483281904</v>
       </c>
       <c r="E61">
-        <v>2.695555926574665</v>
+        <v>2.438007355476135</v>
       </c>
       <c r="F61">
-        <v>2.11702071967214</v>
+        <v>4.711003123817873</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.456256131100186</v>
+        <v>3.63654381346274</v>
       </c>
       <c r="C62">
-        <v>2.488328352171155</v>
+        <v>2.455361438247099</v>
       </c>
       <c r="D62">
-        <v>4.977054722808264</v>
+        <v>2.568868005964722</v>
       </c>
       <c r="E62">
-        <v>2.72076717800303</v>
+        <v>2.458847545041222</v>
       </c>
       <c r="F62">
-        <v>2.125923212997092</v>
+        <v>4.782551860593699</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.478353426562641</v>
+        <v>3.683291384501116</v>
       </c>
       <c r="C63">
-        <v>2.508610096116684</v>
+        <v>2.479077060560173</v>
       </c>
       <c r="D63">
-        <v>5.0484533227685</v>
+        <v>2.59157176410495</v>
       </c>
       <c r="E63">
-        <v>2.747505094212411</v>
+        <v>2.48122519725467</v>
       </c>
       <c r="F63">
-        <v>2.135452582684633</v>
+        <v>4.856975735240557</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>2.502262457308635</v>
+        <v>3.731722306732946</v>
       </c>
       <c r="C64">
-        <v>2.53031337648775</v>
+        <v>2.504846079930102</v>
       </c>
       <c r="D64">
-        <v>5.122455285857354</v>
+        <v>2.615660589390357</v>
       </c>
       <c r="E64">
-        <v>2.775943648865904</v>
+        <v>2.505310563804403</v>
       </c>
       <c r="F64">
-        <v>2.145658678321833</v>
+        <v>4.934471602723955</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.52821735898274</v>
+        <v>3.781907947073509</v>
       </c>
       <c r="C65">
-        <v>2.553615622277165</v>
+        <v>2.532912002306049</v>
       </c>
       <c r="D65">
-        <v>5.199181536556614</v>
+        <v>2.641274852276267</v>
       </c>
       <c r="E65">
-        <v>2.806276736727106</v>
+        <v>2.53128969795061</v>
       </c>
       <c r="F65">
-        <v>2.156595981581501</v>
+        <v>5.015205072661155</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2.556478852418989</v>
+        <v>3.833911861421722</v>
       </c>
       <c r="C66">
-        <v>2.57871881964169</v>
+        <v>2.563530404904307</v>
       </c>
       <c r="D66">
-        <v>5.278703591129356</v>
+        <v>2.668568750739342</v>
       </c>
       <c r="E66">
-        <v>2.838717991172772</v>
+        <v>2.559362275339534</v>
       </c>
       <c r="F66">
-        <v>2.168323982878928</v>
+        <v>5.099295138168749</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2.58733044422298</v>
+        <v>3.887787164697637</v>
       </c>
       <c r="C67">
-        <v>2.605850932427475</v>
+        <v>2.596956698687689</v>
       </c>
       <c r="D67">
-        <v>5.361031222193597</v>
+        <v>2.697709902306512</v>
       </c>
       <c r="E67">
-        <v>2.873498405350225</v>
+        <v>2.589736899529031</v>
       </c>
       <c r="F67">
-        <v>2.180907515657212</v>
+        <v>5.186799565167753</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.621069642971108</v>
+        <v>3.943573826583917</v>
       </c>
       <c r="C68">
-        <v>2.635265583945518</v>
+        <v>2.633426880625824</v>
       </c>
       <c r="D68">
-        <v>5.446104415043489</v>
+        <v>2.728877947209611</v>
       </c>
       <c r="E68">
-        <v>2.910861622650839</v>
+        <v>2.622622914105015</v>
       </c>
       <c r="F68">
-        <v>2.194417062609506</v>
+        <v>5.277703547126269</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2.657991946946036</v>
+        <v>4.00129606417836</v>
       </c>
       <c r="C69">
-        <v>2.667238498117288</v>
+        <v>2.673132383633233</v>
       </c>
       <c r="D69">
-        <v>5.533792556229254</v>
+        <v>2.762261267440961</v>
       </c>
       <c r="E69">
-        <v>2.951055403450453</v>
+        <v>2.658219155446004</v>
       </c>
       <c r="F69">
-        <v>2.208928937759171</v>
+        <v>5.371915145308156</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2.698366010082515</v>
+        <v>4.060959993976169</v>
       </c>
       <c r="C70">
-        <v>2.702059869600715</v>
+        <v>2.71619094729521</v>
       </c>
       <c r="D70">
-        <v>5.623899582545483</v>
+        <v>2.798051838144047</v>
       </c>
       <c r="E70">
-        <v>2.994318173529726</v>
+        <v>2.696698302487306</v>
       </c>
       <c r="F70">
-        <v>2.224525324831334</v>
+        <v>5.469267966262263</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>2.742401753190566</v>
+        <v>4.122551918279937</v>
       </c>
       <c r="C71">
-        <v>2.740019854296836</v>
+        <v>2.762619787651476</v>
       </c>
       <c r="D71">
-        <v>5.716176809357668</v>
+        <v>2.836437622533182</v>
       </c>
       <c r="E71">
-        <v>3.040860584946206</v>
+        <v>2.738188505541251</v>
       </c>
       <c r="F71">
-        <v>2.241293981725708</v>
+        <v>5.569531526707407</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.790214206903309</v>
+        <v>4.186037238306437</v>
       </c>
       <c r="C72">
-        <v>2.7813865170662</v>
+        <v>2.812319516698088</v>
       </c>
       <c r="D72">
-        <v>5.810340175034733</v>
+        <v>2.877592014380492</v>
       </c>
       <c r="E72">
-        <v>3.09084332975252</v>
+        <v>2.782754769758601</v>
       </c>
       <c r="F72">
-        <v>2.259327724895841</v>
+        <v>5.672428382597783</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.841792756524321</v>
+        <v>4.251360226357435</v>
       </c>
       <c r="C73">
-        <v>2.826375919204652</v>
+        <v>2.86507579665887</v>
       </c>
       <c r="D73">
-        <v>5.906088926177784</v>
+        <v>2.921660770937095</v>
       </c>
       <c r="E73">
-        <v>3.144353616237382</v>
+        <v>2.830383925705298</v>
       </c>
       <c r="F73">
-        <v>2.2787234516233</v>
+        <v>5.777653834713544</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.89698635886495</v>
+        <v>4.318444804545454</v>
       </c>
       <c r="C74">
-        <v>2.875118415751594</v>
+        <v>2.920579682300024</v>
       </c>
       <c r="D74">
-        <v>6.003122768498268</v>
+        <v>2.968747616861572</v>
       </c>
       <c r="E74">
-        <v>3.201385471079486</v>
+        <v>2.880977283101719</v>
       </c>
       <c r="F74">
-        <v>2.299580545271474</v>
+        <v>5.88489537573647</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.95551262536019</v>
+        <v>4.3871962650664</v>
       </c>
       <c r="C75">
-        <v>2.927627827813757</v>
+        <v>2.978462940683657</v>
       </c>
       <c r="D75">
-        <v>6.101155569425882</v>
+        <v>3.018900352313929</v>
       </c>
       <c r="E75">
-        <v>3.261829736329436</v>
+        <v>2.934354527826454</v>
       </c>
       <c r="F75">
-        <v>2.321998564469488</v>
+        <v>5.993849068450689</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.016990474881359</v>
+        <v>4.457503835503885</v>
       </c>
       <c r="C76">
-        <v>2.983783631959841</v>
+        <v>3.038337365202511</v>
       </c>
       <c r="D76">
-        <v>6.199924708428959</v>
+        <v>3.072100120527648</v>
       </c>
       <c r="E76">
-        <v>3.325478231955648</v>
+        <v>2.990268256278573</v>
       </c>
       <c r="F76">
-        <v>2.346074132723503</v>
+        <v>6.104231541186794</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.080986734846849</v>
+        <v>4.529243764737717</v>
       </c>
       <c r="C77">
-        <v>3.043335598492097</v>
+        <v>3.099828818421638</v>
       </c>
       <c r="D77">
-        <v>6.299196091293846</v>
+        <v>3.12825678659707</v>
       </c>
       <c r="E77">
-        <v>3.392040992254655</v>
+        <v>3.048427214953414</v>
       </c>
       <c r="F77">
-        <v>2.371896977776283</v>
+        <v>6.215787103882287</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.147063030381652</v>
+        <v>4.602282889476878</v>
       </c>
       <c r="C78">
-        <v>3.105929266065563</v>
+        <v>3.162600345372497</v>
       </c>
       <c r="D78">
-        <v>6.398765832843427</v>
+        <v>3.187212231120871</v>
       </c>
       <c r="E78">
-        <v>3.461174745615148</v>
+        <v>3.108521299246115</v>
       </c>
       <c r="F78">
-        <v>2.399545173745549</v>
+        <v>6.328290981748051</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.21481200273518</v>
+        <v>4.676482250126963</v>
       </c>
       <c r="C79">
-        <v>3.171148352163752</v>
+        <v>3.226363586402007</v>
       </c>
       <c r="D79">
-        <v>6.498459409565561</v>
+        <v>3.248750936999388</v>
       </c>
       <c r="E79">
-        <v>3.53251435498113</v>
+        <v>3.170244613289854</v>
       </c>
       <c r="F79">
-        <v>2.429079808190111</v>
+        <v>6.441549347336358</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.283878543587111</v>
+        <v>4.751700568704523</v>
       </c>
       <c r="C80">
-        <v>3.238560035587391</v>
+        <v>3.290880963723207</v>
       </c>
       <c r="D80">
-        <v>6.598129348390943</v>
+        <v>3.312616914109527</v>
       </c>
       <c r="E80">
-        <v>3.60570101467847</v>
+        <v>3.233312738468527</v>
       </c>
       <c r="F80">
-        <v>2.460539493070058</v>
+        <v>6.555397476219406</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3.353967445324482</v>
+        <v>4.827797390761478</v>
       </c>
       <c r="C81">
-        <v>3.307752650785057</v>
+        <v>3.35596203851799</v>
       </c>
       <c r="D81">
-        <v>6.697652145396753</v>
+        <v>3.378532918515204</v>
       </c>
       <c r="E81">
-        <v>3.680402910511931</v>
+        <v>3.29747298160397</v>
       </c>
       <c r="F81">
-        <v>2.493935323275968</v>
+        <v>6.669696746395675</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.42484161788763</v>
+        <v>4.904635743799739</v>
       </c>
       <c r="C82">
-        <v>3.378359963844163</v>
+        <v>3.421457060780763</v>
       </c>
       <c r="D82">
-        <v>6.796924975179451</v>
+        <v>3.446218840115661</v>
       </c>
       <c r="E82">
-        <v>3.756327118951258</v>
+        <v>3.362508642734406</v>
       </c>
       <c r="F82">
-        <v>2.529246888059578</v>
+        <v>6.784331243319961</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.496315216529184</v>
+        <v>4.982084256682091</v>
       </c>
       <c r="C83">
-        <v>3.4500720223738</v>
+        <v>3.487249771139472</v>
       </c>
       <c r="D83">
-        <v>6.895862505876156</v>
+        <v>3.515406611519437</v>
       </c>
       <c r="E83">
-        <v>3.833223993985933</v>
+        <v>3.428238769875651</v>
       </c>
       <c r="F83">
-        <v>2.56642051776601</v>
+        <v>6.899204353838329</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3.568244931646118</v>
+        <v>5.060018724722092</v>
       </c>
       <c r="C84">
-        <v>3.522635940568141</v>
+        <v>3.553250617425625</v>
       </c>
       <c r="D84">
-        <v>6.994393975043807</v>
+        <v>3.585850437628413</v>
       </c>
       <c r="E84">
-        <v>3.910886179511435</v>
+        <v>3.494515226956079</v>
       </c>
       <c r="F84">
-        <v>2.605369605524788</v>
+        <v>7.014235583660054</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3.640521388568163</v>
+        <v>5.138323156235758</v>
       </c>
       <c r="C85">
-        <v>3.595850692962678</v>
+        <v>3.61939090462798</v>
       </c>
       <c r="D85">
-        <v>7.092460646749037</v>
+        <v>3.657332420056759</v>
       </c>
       <c r="E85">
-        <v>3.989144677644959</v>
+        <v>3.561218457718671</v>
       </c>
       <c r="F85">
-        <v>2.645977424545967</v>
+        <v>7.129357733363565</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.713061588600065</v>
+        <v>5.21689036658517</v>
       </c>
       <c r="C86">
-        <v>3.669559289708118</v>
+        <v>3.6856180080412</v>
       </c>
       <c r="D86">
-        <v>7.190013673095605</v>
+        <v>3.729664388092693</v>
       </c>
       <c r="E86">
-        <v>4.067863425585718</v>
+        <v>3.628252918432922</v>
       </c>
       <c r="F86">
-        <v>2.688102500543271</v>
+        <v>7.244514508117303</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3.785802691587623</v>
+        <v>5.295622195864412</v>
       </c>
       <c r="C87">
-        <v>3.743640509849501</v>
+        <v>3.751891584293396</v>
       </c>
       <c r="D87">
-        <v>7.287012307391939</v>
+        <v>3.802687065753804</v>
       </c>
       <c r="E87">
-        <v>4.146933737300028</v>
+        <v>3.695542744127672</v>
       </c>
       <c r="F87">
-        <v>2.731585428218228</v>
+        <v>7.359658521746035</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3.858697103884236</v>
+        <v>5.374429432437919</v>
       </c>
       <c r="C88">
-        <v>3.818001349640908</v>
+        <v>3.818180634858181</v>
       </c>
       <c r="D88">
-        <v>7.383422416973707</v>
+        <v>3.87626763451342</v>
       </c>
       <c r="E88">
-        <v>4.226269127665293</v>
+        <v>3.763027919951685</v>
       </c>
       <c r="F88">
-        <v>2.776256429966273</v>
+        <v>7.474749630611225</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3.931708693596871</v>
+        <v>5.453231520196007</v>
       </c>
       <c r="C89">
-        <v>3.892570641371134</v>
+        <v>3.884461260540381</v>
       </c>
       <c r="D89">
-        <v>7.479215263960526</v>
+        <v>3.950296526412111</v>
       </c>
       <c r="E89">
-        <v>4.305800848537938</v>
+        <v>3.830661049361272</v>
       </c>
       <c r="F89">
-        <v>2.821942729692299</v>
+        <v>7.58975356058273</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.004809921794035</v>
+        <v>5.531956116522795</v>
       </c>
       <c r="C90">
-        <v>3.967293911349316</v>
+        <v>3.950714958149337</v>
       </c>
       <c r="D90">
-        <v>7.574366521771787</v>
+        <v>4.024684021555236</v>
       </c>
       <c r="E90">
-        <v>4.385474175396234</v>
+        <v>3.898404703751443</v>
       </c>
       <c r="F90">
-        <v>2.868474981119353</v>
+        <v>7.704640798286435</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.077979688751245</v>
+        <v>5.610538557140053</v>
       </c>
       <c r="C91">
-        <v>4.04212935782611</v>
+        <v>4.016927334206498</v>
       </c>
       <c r="D91">
-        <v>7.668855486675119</v>
+        <v>4.099356997265937</v>
       </c>
       <c r="E91">
-        <v>4.465245397417368</v>
+        <v>3.966229291835579</v>
       </c>
       <c r="F91">
-        <v>2.915692313971963</v>
+        <v>7.819385704751172</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.151201725783</v>
+        <v>5.68892127202655</v>
       </c>
       <c r="C92">
-        <v>4.117044762467358</v>
+        <v>4.083087135397853</v>
       </c>
       <c r="D92">
-        <v>7.762664440563738</v>
+        <v>4.17425600738208</v>
       </c>
       <c r="E92">
-        <v>4.545079433905006</v>
+        <v>4.03411136910629</v>
       </c>
       <c r="F92">
-        <v>2.963445836096099</v>
+        <v>7.933965804363568</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.224463397478231</v>
+        <v>5.767053185797547</v>
       </c>
       <c r="C93">
-        <v>4.192015154136489</v>
+        <v>4.149185518040481</v>
       </c>
       <c r="D93">
-        <v>7.85577813536413</v>
+        <v>4.249332763011459</v>
       </c>
       <c r="E93">
-        <v>4.624947957164673</v>
+        <v>4.102032309197556</v>
       </c>
       <c r="F93">
-        <v>3.011600677013712</v>
+        <v>8.048361210120261</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.297754812522563</v>
+        <v>5.844889126117984</v>
       </c>
       <c r="C94">
-        <v>4.267021045829552</v>
+        <v>4.215215499970736</v>
       </c>
       <c r="D94">
-        <v>7.948183380432043</v>
+        <v>4.324548019131966</v>
       </c>
       <c r="E94">
-        <v>4.704827930024673</v>
+        <v>4.169977264590955</v>
       </c>
       <c r="F94">
-        <v>3.060036823411026</v>
+        <v>8.162554162862802</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.371068162008385</v>
+        <v>5.922389254805423</v>
       </c>
       <c r="C95">
-        <v>4.342047079292976</v>
+        <v>4.281171535167569</v>
       </c>
       <c r="D95">
-        <v>8.039868709913625</v>
+        <v>4.399869803452582</v>
       </c>
       <c r="E95">
-        <v>4.784700469719693</v>
+        <v>4.237934347615775</v>
       </c>
       <c r="F95">
-        <v>3.108649005909367</v>
+        <v>8.276528662848124</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.444397205644369</v>
+        <v>5.999518535208301</v>
       </c>
       <c r="C96">
-        <v>4.417081045039186</v>
+        <v>4.347049195739466</v>
       </c>
       <c r="D96">
-        <v>8.130824114977216</v>
+        <v>4.475272003038125</v>
       </c>
       <c r="E96">
-        <v>4.864549969961661</v>
+        <v>4.305893998125033</v>
       </c>
       <c r="F96">
-        <v>3.157345971519856</v>
+        <v>8.39027017575031</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.51773690609894</v>
+        <v>6.076246240023567</v>
       </c>
       <c r="C97">
-        <v>4.492113177625684</v>
+        <v>4.412844943169364</v>
       </c>
       <c r="D97">
-        <v>8.221040827376186</v>
+        <v>4.550733227296259</v>
       </c>
       <c r="E97">
-        <v>4.944363418671245</v>
+        <v>4.373848507299259</v>
       </c>
       <c r="F97">
-        <v>3.206049349943024</v>
+        <v>8.503765396812557</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.591083167357119</v>
+        <v>6.152545499446658</v>
       </c>
       <c r="C98">
-        <v>4.56713557199453</v>
+        <v>4.47855593979567</v>
       </c>
       <c r="D98">
-        <v>8.310511144137559</v>
+        <v>4.626235885142287</v>
       </c>
       <c r="E98">
-        <v>5.024129870034991</v>
+        <v>4.44179162334422</v>
       </c>
       <c r="F98">
-        <v>3.25469234396849</v>
+        <v>8.617002060905333</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.664432619584487</v>
+        <v>6.228392891763459</v>
       </c>
       <c r="C99">
-        <v>4.642141744360035</v>
+        <v>4.544179903620263</v>
       </c>
       <c r="D99">
-        <v>8.399228285280754</v>
+        <v>4.701765432956693</v>
       </c>
       <c r="E99">
-        <v>5.10384003398407</v>
+        <v>4.509718248582067</v>
       </c>
       <c r="F99">
-        <v>3.303218360193868</v>
+        <v>8.729968789551798</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.737782452736398</v>
+        <v>6.303768075946708</v>
       </c>
       <c r="C100">
-        <v>4.717126327277065</v>
+        <v>4.609714998559255</v>
       </c>
       <c r="D100">
-        <v>8.487186287412113</v>
+        <v>4.777309784786824</v>
       </c>
       <c r="E100">
-        <v>5.18348595738949</v>
+        <v>4.577624210974919</v>
       </c>
       <c r="F100">
-        <v>3.351579685622761</v>
+        <v>8.842654972087225</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>4.811130292263479</v>
+        <v>6.378653462325985</v>
       </c>
       <c r="C101">
-        <v>4.792084833732168</v>
+        <v>4.67515975227883</v>
       </c>
       <c r="D101">
-        <v>8.574379888733455</v>
+        <v>4.852858850719544</v>
       </c>
       <c r="E101">
-        <v>5.263060774122775</v>
+        <v>4.64550607849453</v>
       </c>
       <c r="F101">
-        <v>3.399736244749531</v>
+        <v>8.955050662829475</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>4.884474112322613</v>
+        <v>6.453033917682919</v>
       </c>
       <c r="C102">
-        <v>4.867013468693121</v>
+        <v>4.740512989421941</v>
       </c>
       <c r="D102">
-        <v>8.660804473288604</v>
+        <v>4.928404158919957</v>
       </c>
       <c r="E102">
-        <v>5.342558509356873</v>
+        <v>4.713361014885123</v>
       </c>
       <c r="F102">
-        <v>3.447654480718345</v>
+        <v>9.067146509449765</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.957812166435349</v>
+        <v>6.526896503338121</v>
       </c>
       <c r="C103">
-        <v>4.941908986474587</v>
+        <v>4.805773779114403</v>
       </c>
       <c r="D103">
-        <v>8.746455968680769</v>
+        <v>5.003938551468289</v>
       </c>
       <c r="E103">
-        <v>5.421973925488028</v>
+        <v>4.781186665416207</v>
       </c>
       <c r="F103">
-        <v>3.49530637833569</v>
+        <v>9.178933636063681</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5.031142930985184</v>
+        <v>6.600230242886367</v>
       </c>
       <c r="C104">
-        <v>5.016768585630465</v>
+        <v>4.870941394099337</v>
       </c>
       <c r="D104">
-        <v>8.831330824145379</v>
+        <v>5.079455947799274</v>
       </c>
       <c r="E104">
-        <v>5.501302401165751</v>
+        <v>4.848981067162079</v>
       </c>
       <c r="F104">
-        <v>3.542668625488527</v>
+        <v>9.290403666869642</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5.104465062134041</v>
+        <v>6.673025915847267</v>
       </c>
       <c r="C105">
-        <v>5.09158982633363</v>
+        <v>4.936015278380061</v>
       </c>
       <c r="D105">
-        <v>8.915425979504024</v>
+        <v>5.154951152981998</v>
       </c>
       <c r="E105">
-        <v>5.580539831706763</v>
+        <v>4.916742577597613</v>
       </c>
       <c r="F105">
-        <v>3.589721874666608</v>
+        <v>9.401548623096295</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5.177777363662359</v>
+        <v>6.745275873886433</v>
       </c>
       <c r="C106">
-        <v>5.166370564092004</v>
+        <v>5.000995021150953</v>
       </c>
       <c r="D106">
-        <v>8.998738792190773</v>
+        <v>5.230419701029803</v>
       </c>
       <c r="E106">
-        <v>5.65968255121139</v>
+        <v>4.984469816917253</v>
       </c>
       <c r="F106">
-        <v>3.636450129646417</v>
+        <v>9.512360922432315</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5.251078762125943</v>
+        <v>6.816973878323587</v>
       </c>
       <c r="C107">
-        <v>5.241108899594789</v>
+        <v>5.06588033567569</v>
       </c>
       <c r="D107">
-        <v>9.081267042456316</v>
+        <v>5.305857731324935</v>
       </c>
       <c r="E107">
-        <v>5.738727272847463</v>
+        <v>5.052161622974048</v>
       </c>
       <c r="F107">
-        <v>3.68284020768186</v>
+        <v>9.622833350945164</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5.324368286319407</v>
+        <v>6.888114955919818</v>
       </c>
       <c r="C108">
-        <v>5.31580313933566</v>
+        <v>5.130671042323689</v>
       </c>
       <c r="D108">
-        <v>9.163008880822934</v>
+        <v>5.381261888291307</v>
       </c>
       <c r="E108">
-        <v>5.817671038454147</v>
+        <v>5.119817014378477</v>
       </c>
       <c r="F108">
-        <v>3.728881296323041</v>
+        <v>9.732959018378951</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5.397645051049781</v>
+        <v>6.958695270710126</v>
       </c>
       <c r="C109">
-        <v>5.390451764211071</v>
+        <v>5.195367054529773</v>
       </c>
       <c r="D109">
-        <v>9.243962806702912</v>
+        <v>5.456629239229394</v>
       </c>
       <c r="E109">
-        <v>5.896511175840615</v>
+        <v>5.187435161396519</v>
       </c>
       <c r="F109">
-        <v>3.774564583305095</v>
+        <v>9.842731346094848</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5.470908244563351</v>
+        <v>7.028712009460289</v>
       </c>
       <c r="C110">
-        <v>5.465053404251067</v>
+        <v>5.259968367391222</v>
       </c>
       <c r="D110">
-        <v>9.324127649583293</v>
+        <v>5.531957209070922</v>
       </c>
       <c r="E110">
-        <v>5.975245264180622</v>
+        <v>5.255015361610627</v>
       </c>
       <c r="F110">
-        <v>3.819882944968335</v>
+        <v>9.952144047082722</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5.544157118566071</v>
+        <v>7.098163281008085</v>
       </c>
       <c r="C111">
-        <v>5.539606819143908</v>
+        <v>5.324475048043125</v>
       </c>
       <c r="D111">
-        <v>9.403502554770363</v>
+        <v>5.607243525352771</v>
       </c>
       <c r="E111">
-        <v>6.053871106786013</v>
+        <v>5.32255701964696</v>
       </c>
       <c r="F111">
-        <v>3.864830683996889</v>
+        <v>10.06119110521019</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5.617390979944165</v>
+        <v>7.167048025044322</v>
       </c>
       <c r="C112">
-        <v>5.614110881512601</v>
+        <v>5.388887227681749</v>
       </c>
       <c r="D112">
-        <v>9.48208695890631</v>
+        <v>5.682486171949975</v>
       </c>
       <c r="E112">
-        <v>6.132386708100674</v>
+        <v>5.390059631905918</v>
       </c>
       <c r="F112">
-        <v>3.909403309259879</v>
+        <v>10.16986677057332</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>5.690609184236532</v>
+        <v>7.235365929413119</v>
       </c>
       <c r="C113">
-        <v>5.688564563166061</v>
+        <v>5.453205094813874</v>
       </c>
       <c r="D113">
-        <v>9.559880588497037</v>
+        <v>5.757683353359656</v>
       </c>
       <c r="E113">
-        <v>6.210790254287569</v>
+        <v>5.457522774226401</v>
       </c>
       <c r="F113">
-        <v>3.95359735199046</v>
+        <v>10.27816554902629</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5.76381113017813</v>
+        <v>7.303117357957023</v>
       </c>
       <c r="C114">
-        <v>5.762966924641027</v>
+        <v>5.517428889427197</v>
       </c>
       <c r="D114">
-        <v>9.636883439969948</v>
+        <v>5.832833465783614</v>
       </c>
       <c r="E114">
-        <v>6.289080095885016</v>
+        <v>5.524946091115881</v>
       </c>
       <c r="F114">
-        <v>3.997410211315585</v>
+        <v>10.38608218728069</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5.83699625537387</v>
+        <v>7.370303283856573</v>
       </c>
       <c r="C115">
-        <v>5.837317106555076</v>
+        <v>5.58155889758527</v>
       </c>
       <c r="D115">
-        <v>9.713095768229984</v>
+        <v>5.907935072977002</v>
       </c>
       <c r="E115">
-        <v>6.367254734102564</v>
+        <v>5.592329286425326</v>
       </c>
       <c r="F115">
-        <v>4.040840023582784</v>
+        <v>10.49361167140051</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5.910164031455922</v>
+        <v>7.436925235420907</v>
       </c>
       <c r="C116">
-        <v>5.911614322394564</v>
+        <v>5.645595447451446</v>
       </c>
       <c r="D116">
-        <v>9.788518077021704</v>
+        <v>5.982986884905946</v>
       </c>
       <c r="E116">
-        <v>6.445312806869385</v>
+        <v>5.659672115672803</v>
       </c>
       <c r="F116">
-        <v>4.083885556876434</v>
+        <v>10.60074921424992</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5.983313962233396</v>
+        <v>7.502985243268252</v>
       </c>
       <c r="C117">
-        <v>5.985857851978479</v>
+        <v>5.709538905801348</v>
       </c>
       <c r="D117">
-        <v>9.863151108140148</v>
+        <v>6.057987739250643</v>
       </c>
       <c r="E117">
-        <v>6.523253079034701</v>
+        <v>5.726974379890367</v>
       </c>
       <c r="F117">
-        <v>4.126546117717792</v>
+        <v>10.70749024879356</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6.056445580972928</v>
+        <v>7.568485789895606</v>
       </c>
       <c r="C118">
-        <v>6.060047035801702</v>
+        <v>5.77338967451901</v>
       </c>
       <c r="D118">
-        <v>9.93699582981017</v>
+        <v>6.132936586200545</v>
       </c>
       <c r="E118">
-        <v>6.601074435461721</v>
+        <v>5.794235920573041</v>
       </c>
       <c r="F118">
-        <v>4.168821473469446</v>
+        <v>10.81383042223319</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6.129558447962272</v>
+        <v>7.633429766879532</v>
       </c>
       <c r="C119">
-        <v>6.134181270054125</v>
+        <v>5.837148187560151</v>
       </c>
       <c r="D119">
-        <v>10.01005343176812</v>
+        <v>6.207832476592865</v>
       </c>
       <c r="E119">
-        <v>6.678775871011904</v>
+        <v>5.861456615337787</v>
       </c>
       <c r="F119">
-        <v>4.210711786866407</v>
+        <v>10.91976559072493</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6.202652148597744</v>
+        <v>7.697820436067609</v>
       </c>
       <c r="C120">
-        <v>6.2082600028033</v>
+        <v>5.900814908294868</v>
       </c>
       <c r="D120">
-        <v>10.08232531546691</v>
+        <v>6.282674551705768</v>
       </c>
       <c r="E120">
-        <v>6.756356483353437</v>
+        <v>5.928636374120381</v>
       </c>
       <c r="F120">
-        <v>4.252217560636746</v>
+        <v>11.02529181216006</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6.275726291707805</v>
+        <v>7.761661393113808</v>
       </c>
       <c r="C121">
-        <v>6.282282730535091</v>
+        <v>5.964390327034388</v>
       </c>
       <c r="D121">
-        <v>10.15381308585208</v>
+        <v>6.357462034379185</v>
       </c>
       <c r="E121">
-        <v>6.83381546659212</v>
+        <v>5.995775136337243</v>
       </c>
       <c r="F121">
-        <v>4.293339590482264</v>
+        <v>11.1304053440338</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6.348780507895209</v>
+        <v>7.824956537571701</v>
       </c>
       <c r="C122">
-        <v>6.356248995056588</v>
+        <v>6.027874958984468</v>
       </c>
       <c r="D122">
-        <v>10.2245185434188</v>
+        <v>6.432194222068493</v>
       </c>
       <c r="E122">
-        <v>6.911152104858494</v>
+        <v>6.062872866881174</v>
       </c>
       <c r="F122">
-        <v>4.334078925011798</v>
+        <v>11.23510263667796</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6.421814448357289</v>
+        <v>7.887710042563398</v>
       </c>
       <c r="C123">
-        <v>6.430158380971661</v>
+        <v>6.091269342343348</v>
       </c>
       <c r="D123">
-        <v>10.29444367698399</v>
+        <v>6.506870477212376</v>
       </c>
       <c r="E123">
-        <v>6.988365767285882</v>
+        <v>6.129929555568549</v>
       </c>
       <c r="F123">
-        <v>4.374436831573318</v>
+        <v>11.33938032916139</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6.494827783599065</v>
+        <v>7.949926328018527</v>
       </c>
       <c r="C124">
-        <v>6.504010512236365</v>
+        <v>6.154574036508849</v>
       </c>
       <c r="D124">
-        <v>10.36359065689791</v>
+        <v>6.581490225663786</v>
       </c>
       <c r="E124">
-        <v>7.065455902561685</v>
+        <v>6.196945212022941</v>
       </c>
       <c r="F124">
-        <v>4.414414766720457</v>
+        <v>11.44323524483562</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6.567820202666245</v>
+        <v>8.0116100391524</v>
       </c>
       <c r="C125">
-        <v>6.577805051580347</v>
+        <v>6.217789620522823</v>
       </c>
       <c r="D125">
-        <v>10.43196182834417</v>
+        <v>6.656052944804327</v>
       </c>
       <c r="E125">
-        <v>7.142422035523452</v>
+        <v>6.263919867386574</v>
       </c>
       <c r="F125">
-        <v>4.454014351167417</v>
+        <v>11.54666438665001</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6.640791412083582</v>
+        <v>8.072766014412629</v>
       </c>
       <c r="C126">
-        <v>6.6515416951441</v>
+        <v>6.280916691220924</v>
       </c>
       <c r="D126">
-        <v>10.49955970475022</v>
+        <v>6.730558167324788</v>
       </c>
       <c r="E126">
-        <v>7.219263762472982</v>
+        <v>6.330853570006004</v>
       </c>
       <c r="F126">
-        <v>4.493237350054306</v>
+        <v>11.6496649333308</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6.7137411351274</v>
+        <v>8.133399281469238</v>
       </c>
       <c r="C127">
-        <v>6.725220175082496</v>
+        <v>6.34395586230875</v>
       </c>
       <c r="D127">
-        <v>10.56638696125159</v>
+        <v>6.805005470624695</v>
       </c>
       <c r="E127">
-        <v>7.295980747891138</v>
+        <v>6.397746385738126</v>
       </c>
       <c r="F127">
-        <v>4.532085650248881</v>
+        <v>11.75223423527819</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6.786669110566302</v>
+        <v>8.193515010491888</v>
       </c>
       <c r="C128">
-        <v>6.79884025283272</v>
+        <v>6.406907762389852</v>
       </c>
       <c r="D128">
-        <v>10.63244642859947</v>
+        <v>6.879394478429685</v>
       </c>
       <c r="E128">
-        <v>7.37257271944732</v>
+        <v>6.464598396409417</v>
       </c>
       <c r="F128">
-        <v>4.570561251805761</v>
+        <v>11.85436981056321</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6.859575092789299</v>
+        <v>8.253118534054837</v>
       </c>
       <c r="C129">
-        <v>6.87240172259657</v>
+        <v>6.469773034517125</v>
       </c>
       <c r="D129">
-        <v>10.69774108730996</v>
+        <v>6.953724855771194</v>
       </c>
       <c r="E129">
-        <v>7.449039466653749</v>
+        <v>6.531409697865044</v>
       </c>
       <c r="F129">
-        <v>4.608666236033415</v>
+        <v>11.95606934102255</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6.93245884984491</v>
+        <v>8.312215291172466</v>
       </c>
       <c r="C130">
-        <v>6.945904405557164</v>
+        <v>6.532552334606254</v>
       </c>
       <c r="D130">
-        <v>10.76227406192626</v>
+        <v>7.027996305584244</v>
       </c>
       <c r="E130">
-        <v>7.525380835418666</v>
+        <v>6.598180399844311</v>
       </c>
       <c r="F130">
-        <v>4.646402778081591</v>
+        <v>12.0573306684517</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7.005320163974677</v>
+        <v>8.370810852641979</v>
       </c>
       <c r="C131">
-        <v>7.019348151697905</v>
+        <v>6.595246330576203</v>
       </c>
       <c r="D131">
-        <v>10.82604861548416</v>
+        <v>7.102208567682098</v>
       </c>
       <c r="E131">
-        <v>7.601596726055496</v>
+        <v>6.664910624227845</v>
       </c>
       <c r="F131">
-        <v>4.683773113590561</v>
+        <v>12.15815179087082</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7.078158830568522</v>
+        <v>8.428910874175502</v>
       </c>
       <c r="C132">
-        <v>7.092732836246624</v>
+        <v>6.657855701618355</v>
       </c>
       <c r="D132">
-        <v>10.88906814422216</v>
+        <v>7.176361414434541</v>
       </c>
       <c r="E132">
-        <v>7.677687092349466</v>
+        <v>6.731600504618613</v>
       </c>
       <c r="F132">
-        <v>4.720779548061706</v>
+        <v>12.25853085884885</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7.15097465721629</v>
+        <v>8.486521109208706</v>
       </c>
       <c r="C133">
-        <v>7.166058359646737</v>
+        <v>6.720381136719988</v>
       </c>
       <c r="D133">
-        <v>10.95133617256016</v>
+        <v>7.250454650524813</v>
       </c>
       <c r="E133">
-        <v>7.753651934464732</v>
+        <v>6.798250185324832</v>
       </c>
       <c r="F133">
-        <v>4.757424439559196</v>
+        <v>12.35846617190336</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7.223767464450348</v>
+        <v>8.543647379212523</v>
       </c>
       <c r="C134">
-        <v>7.239324645630586</v>
+        <v>6.782823334443144</v>
       </c>
       <c r="D134">
-        <v>11.01285634828987</v>
+        <v>7.324488109116416</v>
       </c>
       <c r="E134">
-        <v>7.829491303354883</v>
+        <v>6.864859820742499</v>
       </c>
       <c r="F134">
-        <v>4.793710191886675</v>
+        <v>12.45795617489836</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7.296537083603578</v>
+        <v>8.600295573453662</v>
       </c>
       <c r="C135">
-        <v>7.312531640526478</v>
+        <v>6.845183001525502</v>
       </c>
       <c r="D135">
-        <v>11.07363243802724</v>
+        <v>7.398461652300541</v>
       </c>
       <c r="E135">
-        <v>7.905205290949707</v>
+        <v>6.931429574994575</v>
       </c>
       <c r="F135">
-        <v>4.829639251122286</v>
+        <v>12.55699945453832</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7.369283357946499</v>
+        <v>8.656471632740134</v>
       </c>
       <c r="C136">
-        <v>7.385679311901396</v>
+        <v>6.90746085261407</v>
       </c>
       <c r="D136">
-        <v>11.13366832297958</v>
+        <v>7.472375167680199</v>
       </c>
       <c r="E136">
-        <v>7.98079403474066</v>
+        <v>6.997959620790692</v>
       </c>
       <c r="F136">
-        <v>4.865214096030795</v>
+        <v>12.65559473592755</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7.442006140943847</v>
+        <v>8.712181544138351</v>
       </c>
       <c r="C137">
-        <v>7.458767647844213</v>
+        <v>6.969657609126718</v>
       </c>
       <c r="D137">
-        <v>11.1929679951293</v>
+        <v>7.546228568474539</v>
       </c>
       <c r="E137">
-        <v>8.056257710248444</v>
+        <v>7.064450139500556</v>
       </c>
       <c r="F137">
-        <v>4.900437235807339</v>
+        <v>12.75374087918206</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7.514705296692357</v>
+        <v>8.767431330046106</v>
       </c>
       <c r="C138">
-        <v>7.531796655856411</v>
+        <v>7.031773998977368</v>
       </c>
       <c r="D138">
-        <v>11.25153555363474</v>
+        <v>7.620021791273019</v>
       </c>
       <c r="E138">
-        <v>8.131596532878556</v>
+        <v>7.130901320126459</v>
       </c>
       <c r="F138">
-        <v>4.935311204806621</v>
+        <v>12.85143687608997</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7.587380698897864</v>
+        <v>8.822227042032587</v>
       </c>
       <c r="C139">
-        <v>7.604766362030534</v>
+        <v>7.093810755685871</v>
       </c>
       <c r="D139">
-        <v>11.3093752016841</v>
+        <v>7.693754795044476</v>
       </c>
       <c r="E139">
-        <v>8.206810753017534</v>
+        <v>7.197313359105293</v>
       </c>
       <c r="F139">
-        <v>4.969838557708197</v>
+        <v>12.94868184685178</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7.660032231003181</v>
+        <v>8.876574753562592</v>
       </c>
       <c r="C140">
-        <v>7.677676810255632</v>
+        <v>7.15576861794948</v>
       </c>
       <c r="D140">
-        <v>11.36649124363869</v>
+        <v>7.76742756012911</v>
       </c>
       <c r="E140">
-        <v>8.281900656752541</v>
+        <v>7.26368645984788</v>
       </c>
       <c r="F140">
-        <v>5.004021869113645</v>
+        <v>13.04547503688221</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7.732659785307302</v>
+        <v>8.930480552263433</v>
       </c>
       <c r="C141">
-        <v>7.750528061195516</v>
+        <v>7.217648329103162</v>
       </c>
       <c r="D141">
-        <v>11.42288808239894</v>
+        <v>7.84104008665806</v>
       </c>
       <c r="E141">
-        <v>8.356866561890939</v>
+        <v>7.33002083212566</v>
       </c>
       <c r="F141">
-        <v>5.037863726851495</v>
+        <v>13.14181581368286</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7.805263263052078</v>
+        <v>8.983950536182467</v>
       </c>
       <c r="C142">
-        <v>7.823320191814874</v>
+        <v>7.279450636439265</v>
       </c>
       <c r="D142">
-        <v>11.4785702167981</v>
+        <v>7.914592394590868</v>
       </c>
       <c r="E142">
-        <v>8.431708818052902</v>
+        <v>7.396316691303879</v>
       </c>
       <c r="F142">
-        <v>5.071366732340358</v>
+        <v>13.23770366380322</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7.877842573851518</v>
+        <v>9.036990804303823</v>
       </c>
       <c r="C143">
-        <v>7.896053294203521</v>
+        <v>7.341176290982203</v>
       </c>
       <c r="D143">
-        <v>11.53354223877934</v>
+        <v>7.988084520703643</v>
       </c>
       <c r="E143">
-        <v>8.506427804304819</v>
+        <v>7.462574259777434</v>
       </c>
       <c r="F143">
-        <v>5.104533495989939</v>
+        <v>13.33313818988238</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7.950397635374282</v>
+        <v>9.08960745606969</v>
       </c>
       <c r="C144">
-        <v>7.968727475348304</v>
+        <v>7.402826046721165</v>
       </c>
       <c r="D144">
-        <v>11.58780883012916</v>
+        <v>8.061516519505021</v>
       </c>
       <c r="E144">
-        <v>8.581023927553497</v>
+        <v>7.528793763620824</v>
       </c>
       <c r="F144">
-        <v>5.137366635580475</v>
+        <v>13.42811910778868</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>8.0229283732473</v>
+        <v>9.14180658074404</v>
       </c>
       <c r="C145">
-        <v>8.041342855937735</v>
+        <v>7.464400660490596</v>
       </c>
       <c r="D145">
-        <v>11.64137475864118</v>
+        <v>8.134888462939575</v>
       </c>
       <c r="E145">
-        <v>8.655497622101498</v>
+        <v>7.594975434159132</v>
       </c>
       <c r="F145">
-        <v>5.169868775776391</v>
+        <v>13.52264624385277</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>8.095434720416016</v>
+        <v>9.193594262908935</v>
       </c>
       <c r="C146">
-        <v>8.113899570240168</v>
+        <v>7.525900891353375</v>
       </c>
       <c r="D146">
-        <v>11.69424487371267</v>
+        <v>8.208200435307809</v>
       </c>
       <c r="E146">
-        <v>8.729849346791154</v>
+        <v>7.661119509007078</v>
       </c>
       <c r="F146">
-        <v>5.202042541735273</v>
+        <v>13.61671953219978</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>8.167916617245258</v>
+        <v>9.244976562857744</v>
       </c>
       <c r="C147">
-        <v>8.186397764969891</v>
+        <v>7.58732750046007</v>
       </c>
       <c r="D147">
-        <v>11.74642410151044</v>
+        <v>8.281452538660496</v>
       </c>
       <c r="E147">
-        <v>8.804079585436785</v>
+        <v>7.727226228045286</v>
       </c>
       <c r="F147">
-        <v>5.233890561948684</v>
+        <v>13.71033901216394</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>8.240374010860082</v>
+        <v>9.29595951913123</v>
       </c>
       <c r="C148">
-        <v>8.258837599183003</v>
+        <v>7.648681250056132</v>
       </c>
       <c r="D148">
-        <v>11.79791743986059</v>
+        <v>8.354644888365199</v>
       </c>
       <c r="E148">
-        <v>8.878188843805066</v>
+        <v>7.79329583621973</v>
       </c>
       <c r="F148">
-        <v>5.265415466456286</v>
+        <v>13.80350482575731</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>8.312806855232715</v>
+        <v>9.346549167070219</v>
       </c>
       <c r="C149">
-        <v>8.331219243273294</v>
+        <v>7.709962904276212</v>
       </c>
       <c r="D149">
-        <v>11.84872995302128</v>
+        <v>8.427777610780103</v>
       </c>
       <c r="E149">
-        <v>8.952177650149329</v>
+        <v>7.859328583086442</v>
       </c>
       <c r="F149">
-        <v>5.296619876987246</v>
+        <v>13.89621721514375</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>8.385215110586783</v>
+        <v>9.396751487678912</v>
       </c>
       <c r="C150">
-        <v>8.403542878802382</v>
+        <v>7.771173227745154</v>
       </c>
       <c r="D150">
-        <v>11.89886676645377</v>
+        <v>8.500850849218745</v>
       </c>
       <c r="E150">
-        <v>9.026046552365431</v>
+        <v>7.925324720532308</v>
       </c>
       <c r="F150">
-        <v>5.32750642395982</v>
+        <v>13.98847652006012</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>8.457598743493582</v>
+        <v>9.446572435547875</v>
       </c>
       <c r="C151">
-        <v>8.475808697752703</v>
+        <v>7.832312985104922</v>
       </c>
       <c r="D151">
-        <v>11.94833306167929</v>
+        <v>8.573864755786374</v>
       </c>
       <c r="E151">
-        <v>9.099796118639155</v>
+        <v>7.991284504724476</v>
       </c>
       <c r="F151">
-        <v>5.358077723833662</v>
+        <v>14.08028317513569</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8.529957726295844</v>
+        <v>9.49601796428909</v>
       </c>
       <c r="C152">
-        <v>8.548016902245358</v>
+        <v>7.893382942945472</v>
       </c>
       <c r="D152">
-        <v>11.99713407126417</v>
+        <v>8.646819494744717</v>
       </c>
       <c r="E152">
-        <v>9.173426934676383</v>
+        <v>8.05720819490279</v>
       </c>
       <c r="F152">
-        <v>5.388336391185772</v>
+        <v>14.17163770708931</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>8.60229203716778</v>
+        <v>9.545093953580004</v>
       </c>
       <c r="C153">
-        <v>8.620167703454053</v>
+        <v>7.954383866242941</v>
       </c>
       <c r="D153">
-        <v>12.04527507396667</v>
+        <v>8.719715242954182</v>
       </c>
       <c r="E153">
-        <v>9.246939604302872</v>
+        <v>8.123096052908313</v>
       </c>
       <c r="F153">
-        <v>5.418285039939845</v>
+        <v>14.26254073181764</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>8.674601659722018</v>
+        <v>9.593806255138606</v>
       </c>
       <c r="C154">
-        <v>8.692261322101775</v>
+        <v>8.015316520290444</v>
       </c>
       <c r="D154">
-        <v>12.09276139005727</v>
+        <v>8.792552185949567</v>
       </c>
       <c r="E154">
-        <v>9.32033474729379</v>
+        <v>8.188948343867565</v>
       </c>
       <c r="F154">
-        <v>5.447926270825174</v>
+        <v>14.35299295141141</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>8.746886582855648</v>
+        <v>9.642160707522907</v>
       </c>
       <c r="C155">
-        <v>8.764297987427316</v>
+        <v>8.076181670927935</v>
       </c>
       <c r="D155">
-        <v>12.13959837682131</v>
+        <v>8.8653305198404</v>
       </c>
       <c r="E155">
-        <v>9.393612999231523</v>
+        <v>8.254765335054524</v>
       </c>
       <c r="F155">
-        <v>5.477262681639442</v>
+        <v>14.44299515114325</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>8.819146800596041</v>
+        <v>9.690163077650066</v>
       </c>
       <c r="C156">
-        <v>8.836277935961736</v>
+        <v>8.136980082163035</v>
       </c>
       <c r="D156">
-        <v>12.18579142423677</v>
+        <v>8.938050450544614</v>
       </c>
       <c r="E156">
-        <v>9.466775010392714</v>
+        <v>8.320547296173482</v>
       </c>
       <c r="F156">
-        <v>5.506296860736674</v>
+        <v>14.53254819646433</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>8.891382311782202</v>
+        <v>9.737819098310636</v>
       </c>
       <c r="C157">
-        <v>8.908201413345523</v>
+        <v>8.19771251785879</v>
       </c>
       <c r="D157">
-        <v>12.23134595084183</v>
+        <v>9.010712192084263</v>
       </c>
       <c r="E157">
-        <v>9.539821444751201</v>
+        <v>8.38629449950967</v>
       </c>
       <c r="F157">
-        <v>5.535031386990071</v>
+        <v>14.62165303003721</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>8.96359312004946</v>
+        <v>9.78513447132247</v>
       </c>
       <c r="C158">
-        <v>8.980068671958767</v>
+        <v>8.258379741049367</v>
       </c>
       <c r="D158">
-        <v>12.27626739977383</v>
+        <v>9.08331596768206</v>
       </c>
       <c r="E158">
-        <v>9.612752979669628</v>
+        <v>8.452007218894726</v>
       </c>
       <c r="F158">
-        <v>5.563468830937926</v>
+        <v>14.71031066882512</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>9.035779233447439</v>
+        <v>9.83211483672261</v>
       </c>
       <c r="C159">
-        <v>9.051879970492188</v>
+        <v>8.318982513108502</v>
       </c>
       <c r="D159">
-        <v>12.32056123497625</v>
+        <v>9.155862008454136</v>
       </c>
       <c r="E159">
-        <v>9.685570304455069</v>
+        <v>8.51768573027419</v>
       </c>
       <c r="F159">
-        <v>5.591611751472121</v>
+        <v>14.7985222012461</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>9.107940664481042</v>
+        <v>9.878765791989252</v>
       </c>
       <c r="C160">
-        <v>9.123635575933676</v>
+        <v>8.37952159461139</v>
       </c>
       <c r="D160">
-        <v>12.36423293757457</v>
+        <v>9.228350552574284</v>
       </c>
       <c r="E160">
-        <v>9.758274120466673</v>
+        <v>8.583330311608048</v>
       </c>
       <c r="F160">
-        <v>5.619462697743309</v>
+        <v>14.88628878439859</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>9.1800774297178</v>
+        <v>9.925092892491483</v>
       </c>
       <c r="C161">
-        <v>9.195335760460592</v>
+        <v>8.439997744349544</v>
       </c>
       <c r="D161">
-        <v>12.40728800241195</v>
+        <v>9.300781846854308</v>
       </c>
       <c r="E161">
-        <v>9.830865139501798</v>
+        <v>8.648941241991292</v>
       </c>
       <c r="F161">
-        <v>5.64702420747228</v>
+        <v>14.97361164136175</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>9.252189549856327</v>
+        <v>9.971101635326381</v>
       </c>
       <c r="C162">
-        <v>9.266980802184484</v>
+        <v>8.500411719443411</v>
       </c>
       <c r="D162">
-        <v>12.4497319347409</v>
+        <v>9.373156143871736</v>
       </c>
       <c r="E162">
-        <v>9.903344084132765</v>
+        <v>8.714518802382578</v>
       </c>
       <c r="F162">
-        <v>5.67429880547488</v>
+        <v>15.06049205857063</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.324277049345126</v>
+        <v>10.01679746956123</v>
       </c>
       <c r="C163">
-        <v>9.338570986064219</v>
+        <v>8.560764275772891</v>
       </c>
       <c r="D163">
-        <v>12.49157024706351</v>
+        <v>9.445473702972862</v>
       </c>
       <c r="E163">
-        <v>9.975711686039467</v>
+        <v>8.780063275088526</v>
       </c>
       <c r="F163">
-        <v>5.701289006698079</v>
+        <v>15.14693138326598</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.396339956426216</v>
+        <v>10.06218579887471</v>
       </c>
       <c r="C164">
-        <v>9.410106601407502</v>
+        <v>8.621056166796102</v>
       </c>
       <c r="D164">
-        <v>12.53280845611681</v>
+        <v>9.517734790756265</v>
       </c>
       <c r="E164">
-        <v>10.04796868647153</v>
+        <v>8.845574943417683</v>
       </c>
       <c r="F164">
-        <v>5.727997311261813</v>
+        <v>15.2329310210188</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.468378302856321</v>
+        <v>10.10727196602433</v>
       </c>
       <c r="C165">
-        <v>9.481587942898713</v>
+        <v>8.681288144223149</v>
       </c>
       <c r="D165">
-        <v>12.57345207999849</v>
+        <v>9.589939678690824</v>
       </c>
       <c r="E165">
-        <v>10.12011583465051</v>
+        <v>8.911054092195158</v>
       </c>
       <c r="F165">
-        <v>5.75442620733507</v>
+        <v>15.31849243332745</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>9.540392123834346</v>
+        <v>10.15206126401688</v>
       </c>
       <c r="C166">
-        <v>9.553015310663898</v>
+        <v>8.741460957947144</v>
       </c>
       <c r="D166">
-        <v>12.61350663542543</v>
+        <v>9.662088644344534</v>
       </c>
       <c r="E166">
-        <v>10.19215388809944</v>
+        <v>8.976501007018088</v>
       </c>
       <c r="F166">
-        <v>5.780578170455888</v>
+        <v>15.40361713527232</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.612381457864766</v>
+        <v>10.19655893947868</v>
       </c>
       <c r="C167">
-        <v>9.624389008717248</v>
+        <v>8.801575355255354</v>
       </c>
       <c r="D167">
-        <v>12.65297763512315</v>
+        <v>9.734181970991264</v>
       </c>
       <c r="E167">
-        <v>10.26408361149834</v>
+        <v>9.041915974432733</v>
       </c>
       <c r="F167">
-        <v>5.806455661368139</v>
+        <v>15.48830669326749</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9.684346346578414</v>
+        <v>10.24077017594634</v>
       </c>
       <c r="C168">
-        <v>9.695709345610108</v>
+        <v>8.861632081500433</v>
       </c>
       <c r="D168">
-        <v>12.69187058534029</v>
+        <v>9.806219946408191</v>
       </c>
       <c r="E168">
-        <v>10.33590577652618</v>
+        <v>9.10729928206842</v>
       </c>
       <c r="F168">
-        <v>5.832061128209956</v>
+        <v>15.57256272286232</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>9.756286834696398</v>
+        <v>10.28470010667143</v>
       </c>
       <c r="C169">
-        <v>9.766976634460795</v>
+        <v>8.921631879650141</v>
       </c>
       <c r="D169">
-        <v>12.73019098340617</v>
+        <v>9.878202863606527</v>
       </c>
       <c r="E169">
-        <v>10.40762116130139</v>
+        <v>9.172651218029706</v>
       </c>
       <c r="F169">
-        <v>5.857397004171292</v>
+        <v>15.65638688649548</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.828202969811112</v>
+        <v>10.32835381642293</v>
       </c>
       <c r="C170">
-        <v>9.838191191594847</v>
+        <v>8.981575490049583</v>
       </c>
       <c r="D170">
-        <v>12.76794431520472</v>
+        <v>9.950131020088833</v>
       </c>
       <c r="E170">
-        <v>10.47923054979735</v>
+        <v>9.237972071184092</v>
       </c>
       <c r="F170">
-        <v>5.882465708246175</v>
+        <v>15.73978089150212</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>9.900094802439162</v>
+        <v>10.37173632806253</v>
       </c>
       <c r="C171">
-        <v>9.909353337271158</v>
+        <v>9.041463651007058</v>
       </c>
       <c r="D171">
-        <v>12.80513605331873</v>
+        <v>10.02200471737078</v>
       </c>
       <c r="E171">
-        <v>10.55073473169728</v>
+        <v>9.303262131098053</v>
       </c>
       <c r="F171">
-        <v>5.907269645222996</v>
+        <v>15.82274648835772</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9.971962385618722</v>
+        <v>10.41485261311092</v>
       </c>
       <c r="C172">
-        <v>9.980463395603</v>
+        <v>9.101297097916834</v>
       </c>
       <c r="D172">
-        <v>12.84177165638593</v>
+        <v>10.09382426166598</v>
       </c>
       <c r="E172">
-        <v>10.62213450157095</v>
+        <v>9.368521687628183</v>
       </c>
       <c r="F172">
-        <v>5.931811204421463</v>
+        <v>15.90528546860245</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>10.04380577492588</v>
+        <v>10.45770759198072</v>
       </c>
       <c r="C173">
-        <v>10.051521693296</v>
+        <v>9.161076563686958</v>
       </c>
       <c r="D173">
-        <v>12.87785656359137</v>
+        <v>10.16558996251183</v>
       </c>
       <c r="E173">
-        <v>10.69343065897478</v>
+        <v>9.433751031221133</v>
       </c>
       <c r="F173">
-        <v>5.956092760707613</v>
+        <v>15.98739966278403</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>10.11562502885813</v>
+        <v>10.50030612588455</v>
       </c>
       <c r="C174">
-        <v>10.12252856049941</v>
+        <v>9.22080277888057</v>
       </c>
       <c r="D174">
-        <v>12.9133961989176</v>
+        <v>10.23730213314959</v>
       </c>
       <c r="E174">
-        <v>10.76462400751883</v>
+        <v>9.498950452692215</v>
       </c>
       <c r="F174">
-        <v>5.980116673472276</v>
+        <v>16.0690909386388</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>10.18742020773954</v>
+        <v>10.54265302364607</v>
       </c>
       <c r="C175">
-        <v>10.1934843304723</v>
+        <v>9.280476471058082</v>
       </c>
       <c r="D175">
-        <v>12.94839596284649</v>
+        <v>10.30896109076336</v>
       </c>
       <c r="E175">
-        <v>10.8357153551003</v>
+        <v>9.564120243004139</v>
       </c>
       <c r="F175">
-        <v>6.0038852865645</v>
+        <v>16.15036119940476</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>10.25919137422104</v>
+        <v>10.58475304178781</v>
       </c>
       <c r="C176">
-        <v>10.26438933869039</v>
+        <v>9.340098365209142</v>
       </c>
       <c r="D176">
-        <v>12.98286123349976</v>
+        <v>10.38056715520347</v>
       </c>
       <c r="E176">
-        <v>10.90670551295535</v>
+        <v>9.629260693572379</v>
       </c>
       <c r="F176">
-        <v>6.027400928964187</v>
+        <v>16.23121238211208</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>10.33093859353886</v>
+        <v>10.62661087933396</v>
       </c>
       <c r="C177">
-        <v>10.3352439235453</v>
+        <v>9.399669183623399</v>
       </c>
       <c r="D177">
-        <v>13.01679736653335</v>
+        <v>10.45212064963075</v>
       </c>
       <c r="E177">
-        <v>10.977595296216</v>
+        <v>9.694372095845525</v>
       </c>
       <c r="F177">
-        <v>6.050665913306505</v>
+        <v>16.31164645588698</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>10.40266193287007</v>
+        <v>10.66823118286278</v>
       </c>
       <c r="C178">
-        <v>10.40604842583877</v>
+        <v>9.459189645659702</v>
       </c>
       <c r="D178">
-        <v>13.05020968972706</v>
+        <v>10.52362190033077</v>
       </c>
       <c r="E178">
-        <v>11.04838552240397</v>
+        <v>9.759454741378503</v>
       </c>
       <c r="F178">
-        <v>6.0736825368967</v>
+        <v>16.39166542039502</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>10.47436146109625</v>
+        <v>10.70961854679853</v>
       </c>
       <c r="C179">
-        <v>10.4768031883176</v>
+        <v>9.518660468048829</v>
       </c>
       <c r="D179">
-        <v>13.08310350608763</v>
+        <v>10.59507123589869</v>
       </c>
       <c r="E179">
-        <v>11.11907701160712</v>
+        <v>9.824508921967558</v>
       </c>
       <c r="F179">
-        <v>6.096453081224595</v>
+        <v>16.47127130415257</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>10.54603724928116</v>
+        <v>10.75077750903797</v>
       </c>
       <c r="C180">
-        <v>10.547508556145</v>
+        <v>9.578082364597273</v>
       </c>
       <c r="D180">
-        <v>13.11548409024255</v>
+        <v>10.66646898779207</v>
       </c>
       <c r="E180">
-        <v>11.18967058728024</v>
+        <v>9.889534929248754</v>
       </c>
       <c r="F180">
-        <v>6.118979811490654</v>
+        <v>16.55046616220078</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>10.61768937063767</v>
+        <v>10.79171255583859</v>
       </c>
       <c r="C181">
-        <v>10.61816487630765</v>
+        <v>9.637456046198485</v>
       </c>
       <c r="D181">
-        <v>13.14735668606844</v>
+        <v>10.73781548983694</v>
       </c>
       <c r="E181">
-        <v>11.26016707440727</v>
+        <v>9.954533054892758</v>
       </c>
       <c r="F181">
-        <v>6.141264977383242</v>
+        <v>16.62925207848239</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>10.68931789964179</v>
+        <v>10.83242812204639</v>
       </c>
       <c r="C182">
-        <v>10.68877249744063</v>
+        <v>9.696782221076328</v>
       </c>
       <c r="D182">
-        <v>13.17872650915463</v>
+        <v>10.80911107790152</v>
       </c>
       <c r="E182">
-        <v>11.33056729909532</v>
+        <v>10.01950359058362</v>
       </c>
       <c r="F182">
-        <v>6.163310812028506</v>
+        <v>16.70763115933953</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>10.76092291262418</v>
+        <v>10.87292858719724</v>
       </c>
       <c r="C183">
-        <v>10.75933177024547</v>
+        <v>9.75606159437053</v>
       </c>
       <c r="D183">
-        <v>13.20959874218247</v>
+        <v>10.88035609032455</v>
       </c>
       <c r="E183">
-        <v>11.40087208993903</v>
+        <v>10.08444682776028</v>
       </c>
       <c r="F183">
-        <v>6.185119532716663</v>
+        <v>16.78560553355958</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>10.83250448789618</v>
+        <v>10.91321828016978</v>
       </c>
       <c r="C184">
-        <v>10.82984304670528</v>
+        <v>9.815294868395195</v>
       </c>
       <c r="D184">
-        <v>13.23997853526582</v>
+        <v>10.95155086712083</v>
       </c>
       <c r="E184">
-        <v>11.47108227784532</v>
+        <v>10.14936305779262</v>
       </c>
       <c r="F184">
-        <v>6.206693340701962</v>
+        <v>16.86317735275473</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>10.90406270492285</v>
+        <v>10.95330147911066</v>
       </c>
       <c r="C185">
-        <v>10.90030668019354</v>
+        <v>9.874482742669644</v>
       </c>
       <c r="D185">
-        <v>13.26987100625016</v>
+        <v>11.02269575016933</v>
       </c>
       <c r="E185">
-        <v>11.5411986928653</v>
+        <v>10.21425257187557</v>
       </c>
       <c r="F185">
-        <v>6.228034420362442</v>
+        <v>16.94034878923994</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>10.97559764475761</v>
+        <v>10.99318240882401</v>
       </c>
       <c r="C186">
-        <v>10.9707230258333</v>
+        <v>9.933625913652072</v>
       </c>
       <c r="D186">
-        <v>13.29928123675132</v>
+        <v>11.09379108333879</v>
       </c>
       <c r="E186">
-        <v>11.61122216665321</v>
+        <v>10.27911566089224</v>
       </c>
       <c r="F186">
-        <v>6.249144939685761</v>
+        <v>17.01712203439498</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>11.04710939007421</v>
+        <v>11.03286524439646</v>
       </c>
       <c r="C187">
-        <v>11.04109243956626</v>
+        <v>9.992725074991657</v>
       </c>
       <c r="D187">
-        <v>13.32821427547472</v>
+        <v>11.16483721176497</v>
       </c>
       <c r="E187">
-        <v>11.68115353350889</v>
+        <v>10.34395261558004</v>
       </c>
       <c r="F187">
-        <v>6.270027051311442</v>
+        <v>17.09349929755419</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>11.11859802477231</v>
+        <v>11.07235411110022</v>
       </c>
       <c r="C188">
-        <v>11.11141527854849</v>
+        <v>10.05178091743723</v>
       </c>
       <c r="D188">
-        <v>13.35667513292745</v>
+        <v>11.23583448219897</v>
       </c>
       <c r="E188">
-        <v>11.75099362602868</v>
+        <v>10.40876372632153</v>
       </c>
       <c r="F188">
-        <v>6.290682891163073</v>
+        <v>17.16948280502159</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>11.19006363400688</v>
+        <v>11.1116530829173</v>
       </c>
       <c r="C189">
-        <v>11.18169190126859</v>
+        <v>10.11079412874904</v>
       </c>
       <c r="D189">
-        <v>13.38466878326897</v>
+        <v>11.30678324290538</v>
       </c>
       <c r="E189">
-        <v>11.82074327776227</v>
+        <v>10.47354928315882</v>
       </c>
       <c r="F189">
-        <v>6.311114577645862</v>
+        <v>17.24507479897833</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>11.26150630429069</v>
+        <v>11.15076618524359</v>
       </c>
       <c r="C190">
-        <v>11.25192266681298</v>
+        <v>10.1697653939021</v>
       </c>
       <c r="D190">
-        <v>13.41220016350688</v>
+        <v>11.37768384316306</v>
       </c>
       <c r="E190">
-        <v>11.89040332361783</v>
+        <v>10.53830957589603</v>
       </c>
       <c r="F190">
-        <v>6.331324212853318</v>
+        <v>17.32027753651403</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>11.33292612338259</v>
+        <v>11.18969739488079</v>
       </c>
       <c r="C191">
-        <v>11.32210793522057</v>
+        <v>10.22869539488934</v>
       </c>
       <c r="D191">
-        <v>13.43927417293374</v>
+        <v>11.44853663361326</v>
       </c>
       <c r="E191">
-        <v>11.95997459760683</v>
+        <v>10.6030448938567</v>
       </c>
       <c r="F191">
-        <v>6.351313884776753</v>
+        <v>17.39509328816964</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>11.40432318000243</v>
+        <v>11.22845063926484</v>
       </c>
       <c r="C192">
-        <v>11.39224806750636</v>
+        <v>10.28758481081571</v>
       </c>
       <c r="D192">
-        <v>13.46589567207264</v>
+        <v>11.51934196595383</v>
       </c>
       <c r="E192">
-        <v>12.02945793363802</v>
+        <v>10.66775552600295</v>
       </c>
       <c r="F192">
-        <v>6.371085663309387</v>
+        <v>17.46952433715337</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>11.47569756403045</v>
+        <v>11.26702979864789</v>
       </c>
       <c r="C193">
-        <v>11.46234342510428</v>
+        <v>10.34643431798266</v>
       </c>
       <c r="D193">
-        <v>13.49206948278287</v>
+        <v>11.59010019272408</v>
       </c>
       <c r="E193">
-        <v>12.09885416582791</v>
+        <v>10.73244176093635</v>
       </c>
       <c r="F193">
-        <v>6.390641601251974</v>
+        <v>17.54357297832716</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>11.54704936661271</v>
+        <v>11.30543870615557</v>
       </c>
       <c r="C194">
-        <v>11.53239437016598</v>
+        <v>10.40524458972844</v>
       </c>
       <c r="D194">
-        <v>13.51780038716764</v>
+        <v>11.66081166759782</v>
       </c>
       <c r="E194">
-        <v>12.16816412795699</v>
+        <v>10.79710388673601</v>
       </c>
       <c r="F194">
-        <v>6.409983735257712</v>
+        <v>17.61724151717739</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>11.61837867959218</v>
+        <v>11.34368114739346</v>
       </c>
       <c r="C195">
-        <v>11.60240126551702</v>
+        <v>10.46401629656795</v>
       </c>
       <c r="D195">
-        <v>13.54309312704518</v>
+        <v>11.73147674487496</v>
       </c>
       <c r="E195">
-        <v>12.23738865279363</v>
+        <v>10.86174219106885</v>
       </c>
       <c r="F195">
-        <v>6.429114088067406</v>
+        <v>17.69053226897123</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>11.68968559582223</v>
+        <v>11.38176086234419</v>
       </c>
       <c r="C196">
-        <v>11.6723644742358</v>
+        <v>10.52275010619812</v>
       </c>
       <c r="D196">
-        <v>13.56795240406116</v>
+        <v>11.80209577960177</v>
       </c>
       <c r="E196">
-        <v>12.30652857272486</v>
+        <v>10.92635696113955</v>
       </c>
       <c r="F196">
-        <v>6.44803466364703</v>
+        <v>17.76344755793973</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>11.76097020932079</v>
+        <v>11.41968154545604</v>
       </c>
       <c r="C197">
-        <v>11.74228435992105</v>
+        <v>10.58144668341827</v>
       </c>
       <c r="D197">
-        <v>13.59238287919143</v>
+        <v>11.87266912765423</v>
       </c>
       <c r="E197">
-        <v>12.37558471988731</v>
+        <v>10.99094848360334</v>
       </c>
       <c r="F197">
-        <v>6.466747449992385</v>
+        <v>17.8359897163602</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>11.83223261472646</v>
+        <v>11.45744684556298</v>
       </c>
       <c r="C198">
-        <v>11.81216128658396</v>
+        <v>10.64010669025921</v>
       </c>
       <c r="D198">
-        <v>13.61638917221376</v>
+        <v>11.94319714529227</v>
       </c>
       <c r="E198">
-        <v>12.4445579247447</v>
+        <v>11.05551704466468</v>
       </c>
       <c r="F198">
-        <v>6.485254418925462</v>
+        <v>17.90816108365089</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>11.90347290753364</v>
+        <v>11.49506036746727</v>
       </c>
       <c r="C199">
-        <v>11.88199561834357</v>
+        <v>10.69873078593164</v>
       </c>
       <c r="D199">
-        <v>13.63997586145351</v>
+        <v>12.01368018937192</v>
       </c>
       <c r="E199">
-        <v>12.51344901691959</v>
+        <v>11.12006292997228</v>
       </c>
       <c r="F199">
-        <v>6.503557527488631</v>
+        <v>17.97996400558862</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>11.97469118412585</v>
+        <v>11.53252567210386</v>
       </c>
       <c r="C200">
-        <v>11.9517877196724</v>
+        <v>10.75731962683042</v>
       </c>
       <c r="D200">
-        <v>13.66314748391284</v>
+        <v>12.08411861728509</v>
       </c>
       <c r="E200">
-        <v>12.58225882586364</v>
+        <v>11.18458642461491</v>
       </c>
       <c r="F200">
-        <v>6.52165871483001</v>
+        <v>18.05140083356368</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.0458875416316</v>
+        <v>11.56984627674733</v>
       </c>
       <c r="C201">
-        <v>12.02153795522157</v>
+        <v>10.81587386663981</v>
       </c>
       <c r="D201">
-        <v>13.68590853465838</v>
+        <v>12.15451278665672</v>
       </c>
       <c r="E201">
-        <v>12.65098817882629</v>
+        <v>11.24908781319222</v>
       </c>
       <c r="F201">
-        <v>6.539559904461083</v>
+        <v>18.12247392384226</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.11706207779947</v>
+        <v>11.60702565624481</v>
       </c>
       <c r="C202">
-        <v>12.09124668963456</v>
+        <v>10.87439415623553</v>
       </c>
       <c r="D202">
-        <v>13.7082634667459</v>
+        <v>12.22486305555522</v>
       </c>
       <c r="E202">
-        <v>12.71963790200843</v>
+        <v>11.31356737967548</v>
       </c>
       <c r="F202">
-        <v>6.557263003833537</v>
+        <v>18.19318563682852</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.18821489111063</v>
+        <v>11.64406724330216</v>
       </c>
       <c r="C203">
-        <v>12.16091428776017</v>
+        <v>10.93288114377509</v>
       </c>
       <c r="D203">
-        <v>13.73021669122831</v>
+        <v>12.29516978231037</v>
       </c>
       <c r="E203">
-        <v>12.78820882075847</v>
+        <v>11.37802540747717</v>
       </c>
       <c r="F203">
-        <v>6.574769905023532</v>
+        <v>18.26353833597989</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>12.25934608076688</v>
+        <v>11.68097442889677</v>
       </c>
       <c r="C204">
-        <v>12.23054111441821</v>
+        <v>10.99133547473202</v>
       </c>
       <c r="D204">
-        <v>13.75177257682115</v>
+        <v>12.36543332537716</v>
       </c>
       <c r="E204">
-        <v>12.85670175876796</v>
+        <v>11.44246217945932</v>
       </c>
       <c r="F204">
-        <v>6.592082483211848</v>
+        <v>18.3335343882384</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>12.33045574645319</v>
+        <v>11.71775056322673</v>
       </c>
       <c r="C205">
-        <v>12.30012753432964</v>
+        <v>11.04975779184572</v>
       </c>
       <c r="D205">
-        <v>13.77293544988685</v>
+        <v>12.43565404352416</v>
       </c>
       <c r="E205">
-        <v>12.9251175379742</v>
+        <v>11.50687797783826</v>
       </c>
       <c r="F205">
-        <v>6.609202597885544</v>
+        <v>18.403176161756</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>12.40154398845784</v>
+        <v>11.7543989561147</v>
       </c>
       <c r="C206">
-        <v>12.3696739122881</v>
+        <v>11.10814873520435</v>
       </c>
       <c r="D206">
-        <v>13.79370959434797</v>
+        <v>12.50583229551765</v>
       </c>
       <c r="E206">
-        <v>12.99345697902166</v>
+        <v>11.57127308425114</v>
       </c>
       <c r="F206">
-        <v>6.626132092758247</v>
+        <v>18.47246602772157</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>12.47261090778648</v>
+        <v>11.79092287753245</v>
       </c>
       <c r="C207">
-        <v>12.43918061287775</v>
+        <v>11.16650894225133</v>
       </c>
       <c r="D207">
-        <v>13.81409925165236</v>
+        <v>12.57596844019591</v>
       </c>
       <c r="E207">
-        <v>13.06172090114991</v>
+        <v>11.63564777973522</v>
       </c>
       <c r="F207">
-        <v>6.642872796148778</v>
+        <v>18.5414063569278</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>12.5436566057751</v>
+        <v>11.82732555836011</v>
       </c>
       <c r="C208">
-        <v>12.50864800050789</v>
+        <v>11.22483904777773</v>
       </c>
       <c r="D208">
-        <v>13.83410862079643</v>
+        <v>12.6460628365302</v>
       </c>
       <c r="E208">
-        <v>13.1299101214475</v>
+        <v>11.70000234467463</v>
       </c>
       <c r="F208">
-        <v>6.659426519912895</v>
+        <v>18.60999952107828</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>12.61468118429326</v>
+        <v>11.8636101908851</v>
       </c>
       <c r="C209">
-        <v>12.57807643954617</v>
+        <v>11.28313968399137</v>
       </c>
       <c r="D209">
-        <v>13.8537418546699</v>
+        <v>12.71611584334218</v>
       </c>
       <c r="E209">
-        <v>13.19802545540037</v>
+        <v>11.76433705885992</v>
       </c>
       <c r="F209">
-        <v>6.67579506039408</v>
+        <v>18.67824789184689</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>12.68568474577537</v>
+        <v>11.89977992937822</v>
       </c>
       <c r="C210">
-        <v>12.64746629399356</v>
+        <v>11.34141148050121</v>
       </c>
       <c r="D210">
-        <v>13.87300306611818</v>
+        <v>12.78612781944122</v>
       </c>
       <c r="E210">
-        <v>13.26606771708627</v>
+        <v>11.82865220143716</v>
       </c>
       <c r="F210">
-        <v>6.691980198606205</v>
+        <v>18.74615383904097</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>12.75666739304573</v>
+        <v>11.93583789070804</v>
       </c>
       <c r="C211">
-        <v>12.71681792762283</v>
+        <v>11.39965506434973</v>
       </c>
       <c r="D211">
-        <v>13.89189632933527</v>
+        <v>12.85609912359039</v>
       </c>
       <c r="E211">
-        <v>13.33403771822673</v>
+        <v>11.89294805090024</v>
       </c>
       <c r="F211">
-        <v>6.707983700366696</v>
+        <v>18.8137197329349</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.82762922929975</v>
+        <v>11.97178715493454</v>
       </c>
       <c r="C212">
-        <v>12.78613170402698</v>
+        <v>11.45787106005829</v>
       </c>
       <c r="D212">
-        <v>13.9104256750494</v>
+        <v>12.92603011431807</v>
       </c>
       <c r="E212">
-        <v>13.40193626873539</v>
+        <v>11.95722488513841</v>
       </c>
       <c r="F212">
-        <v>6.723807315278238</v>
+        <v>18.88094794058654</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.89857035818358</v>
+        <v>12.00763076590032</v>
       </c>
       <c r="C213">
-        <v>12.85540798635685</v>
+        <v>11.51606008961269</v>
       </c>
       <c r="D213">
-        <v>13.92859509059653</v>
+        <v>12.99592115005029</v>
       </c>
       <c r="E213">
-        <v>13.46976417692304</v>
+        <v>12.02148298135894</v>
       </c>
       <c r="F213">
-        <v>6.73945277779488</v>
+        <v>18.94784082661616</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.96949088376292</v>
+        <v>12.04337173171015</v>
       </c>
       <c r="C214">
-        <v>12.92464713745202</v>
+        <v>11.57422277251239</v>
       </c>
       <c r="D214">
-        <v>13.94640852065949</v>
+        <v>13.06577258900242</v>
       </c>
       <c r="E214">
-        <v>13.53752224879512</v>
+        <v>12.08572261612791</v>
       </c>
       <c r="F214">
-        <v>6.754921807474399</v>
+        <v>19.01440075325105</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.04039091035376</v>
+        <v>12.07901302543387</v>
       </c>
       <c r="C215">
-        <v>12.99384951986043</v>
+        <v>11.63235972579501</v>
       </c>
       <c r="D215">
-        <v>13.9638698505347</v>
+        <v>13.13558478909435</v>
       </c>
       <c r="E215">
-        <v>13.60521128830186</v>
+        <v>12.14994406537969</v>
       </c>
       <c r="F215">
-        <v>6.770216108731582</v>
+        <v>19.08063007992155</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.11127054263299</v>
+        <v>12.11455758567935</v>
       </c>
       <c r="C216">
-        <v>13.06301549562731</v>
+        <v>11.69047156404025</v>
       </c>
       <c r="D216">
-        <v>13.98098295578782</v>
+        <v>13.20535810806916</v>
       </c>
       <c r="E216">
-        <v>13.67283209753041</v>
+        <v>12.21414760436412</v>
       </c>
       <c r="F216">
-        <v>6.785337370374743</v>
+        <v>19.14653116257769</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13.18212988567229</v>
+        <v>12.15000831695469</v>
       </c>
       <c r="C217">
-        <v>13.13214542641579</v>
+        <v>11.74855889941412</v>
       </c>
       <c r="D217">
-        <v>13.99775163777686</v>
+        <v>13.2750929033021</v>
       </c>
       <c r="E217">
-        <v>13.74038547649791</v>
+        <v>12.27833350768594</v>
       </c>
       <c r="F217">
-        <v>6.800287266363812</v>
+        <v>19.21210635294837</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>13.25296904472346</v>
+        <v>12.18536809048215</v>
       </c>
       <c r="C218">
-        <v>13.20123967349839</v>
+        <v>11.80662234168438</v>
       </c>
       <c r="D218">
-        <v>14.0141797063688</v>
+        <v>13.34478953184489</v>
       </c>
       <c r="E218">
-        <v>13.80787222285385</v>
+        <v>12.34250204929848</v>
       </c>
       <c r="F218">
-        <v>6.815067455959317</v>
+        <v>19.27735799838491</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>13.32378812532929</v>
+        <v>12.22063974472344</v>
       </c>
       <c r="C219">
-        <v>13.27029859759753</v>
+        <v>11.86466249823989</v>
       </c>
       <c r="D219">
-        <v>14.03027088377053</v>
+        <v>13.41444835046926</v>
       </c>
       <c r="E219">
-        <v>13.87529313221618</v>
+        <v>12.40665350247357</v>
       </c>
       <c r="F219">
-        <v>6.829679583455271</v>
+        <v>19.34228844147605</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>13.39458723335803</v>
+        <v>12.25582608565592</v>
       </c>
       <c r="C220">
-        <v>13.33932255899279</v>
+        <v>11.92267997412696</v>
       </c>
       <c r="D220">
-        <v>14.04602888066961</v>
+        <v>13.48406971549089</v>
       </c>
       <c r="E220">
-        <v>13.94264899824055</v>
+        <v>12.4707881398371</v>
       </c>
       <c r="F220">
-        <v>6.844125278244992</v>
+        <v>19.40690001961969</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>13.46536647484679</v>
+        <v>12.29092988768346</v>
       </c>
       <c r="C221">
-        <v>13.40831191748689</v>
+        <v>11.98067537206099</v>
       </c>
       <c r="D221">
-        <v>14.06145734264417</v>
+        <v>13.55365398285775</v>
       </c>
       <c r="E221">
-        <v>14.00994061205731</v>
+        <v>12.53490623334658</v>
       </c>
       <c r="F221">
-        <v>6.858406155093662</v>
+        <v>19.47119506498331</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.53612595604221</v>
+        <v>12.32595389409522</v>
       </c>
       <c r="C222">
-        <v>13.47726703229499</v>
+        <v>12.03864929245671</v>
       </c>
       <c r="D222">
-        <v>14.07655988035138</v>
+        <v>13.62320150813231</v>
       </c>
       <c r="E222">
-        <v>14.07716876264035</v>
+        <v>12.59900805428539</v>
       </c>
       <c r="F222">
-        <v>6.872523814295104</v>
+        <v>19.53517590373708</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.60686578343275</v>
+        <v>12.36090081728223</v>
       </c>
       <c r="C223">
-        <v>13.54618826213799</v>
+        <v>12.09660233345339</v>
       </c>
       <c r="D223">
-        <v>14.09134006400378</v>
+        <v>13.69271264637473</v>
       </c>
       <c r="E223">
-        <v>14.14433423700015</v>
+        <v>12.66309387329272</v>
       </c>
       <c r="F223">
-        <v>6.886479841519091</v>
+        <v>19.59884485595127</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.67758606370131</v>
+        <v>12.39577333973236</v>
       </c>
       <c r="C224">
-        <v>13.61507596518563</v>
+        <v>12.15453509093457</v>
       </c>
       <c r="D224">
-        <v>14.10580141756277</v>
+        <v>13.76218775226297</v>
       </c>
       <c r="E224">
-        <v>14.21143781956851</v>
+        <v>12.72716396032504</v>
       </c>
       <c r="F224">
-        <v>6.900275807997508</v>
+        <v>19.66220423540238</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.74828690364734</v>
+        <v>12.43057411441085</v>
       </c>
       <c r="C225">
-        <v>13.68393049899046</v>
+        <v>12.21244815855135</v>
       </c>
       <c r="D225">
-        <v>14.11994743369728</v>
+        <v>13.83162717997768</v>
       </c>
       <c r="E225">
-        <v>14.27848029256517</v>
+        <v>12.79121858468016</v>
       </c>
       <c r="F225">
-        <v>6.913913270628658</v>
+        <v>19.72525634908135</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.81896841025155</v>
+        <v>12.46530576493063</v>
       </c>
       <c r="C226">
-        <v>13.75275222056792</v>
+        <v>12.27034212774616</v>
       </c>
       <c r="D226">
-        <v>14.13378155885345</v>
+        <v>13.90103128313165</v>
       </c>
       <c r="E226">
-        <v>14.34546243605931</v>
+        <v>12.85525801501291</v>
       </c>
       <c r="F226">
-        <v>6.927393772465613</v>
+        <v>19.78800349699713</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.88963069069036</v>
+        <v>12.49997088662843</v>
       </c>
       <c r="C227">
-        <v>13.82154148631842</v>
+        <v>12.32821758778391</v>
       </c>
       <c r="D227">
-        <v>14.14730720579751</v>
+        <v>13.97040041481088</v>
       </c>
       <c r="E227">
-        <v>14.41238502774577</v>
+        <v>12.9192825192848</v>
       </c>
       <c r="F227">
-        <v>6.940718842011636</v>
+        <v>19.85044797187031</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.96027385219263</v>
+        <v>12.53457204685596</v>
       </c>
       <c r="C228">
-        <v>13.89029865200259</v>
+        <v>12.38607512576975</v>
       </c>
       <c r="D228">
-        <v>14.1605277453007</v>
+        <v>14.0397349277051</v>
       </c>
       <c r="E228">
-        <v>14.4792488429223</v>
+        <v>12.98329236479663</v>
       </c>
       <c r="F228">
-        <v>6.953889993837495</v>
+        <v>19.91259205896711</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.03089800211816</v>
+        <v>12.56911178511283</v>
       </c>
       <c r="C229">
-        <v>13.95902407280828</v>
+        <v>12.44391532668398</v>
       </c>
       <c r="D229">
-        <v>14.17344651016674</v>
+        <v>14.10903517399364</v>
       </c>
       <c r="E229">
-        <v>14.5460546546489</v>
+        <v>13.04728781818419</v>
       </c>
       <c r="F229">
-        <v>6.966908728585783</v>
+        <v>19.97443803586943</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.10150324799996</v>
+        <v>12.60359261420278</v>
       </c>
       <c r="C230">
-        <v>14.02771810325373</v>
+        <v>12.5017387734132</v>
       </c>
       <c r="D230">
-        <v>14.18606679399219</v>
+        <v>14.17830150503886</v>
       </c>
       <c r="E230">
-        <v>14.61280323373174</v>
+        <v>13.11126914552058</v>
       </c>
       <c r="F230">
-        <v>6.979776533334583</v>
+        <v>20.03598817206682</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.17208969738732</v>
+        <v>12.6380170204261</v>
       </c>
       <c r="C231">
-        <v>14.09638109720095</v>
+        <v>12.55954604673744</v>
       </c>
       <c r="D231">
-        <v>14.19839185112109</v>
+        <v>14.24753427168317</v>
       </c>
       <c r="E231">
-        <v>14.67949534847553</v>
+        <v>13.17523661209647</v>
       </c>
       <c r="F231">
-        <v>6.992494881090209</v>
+        <v>20.09724472888175</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.24265745792465</v>
+        <v>12.67238746368636</v>
       </c>
       <c r="C232">
-        <v>14.16501340790942</v>
+        <v>12.61733772538717</v>
       </c>
       <c r="D232">
-        <v>14.21042489630466</v>
+        <v>14.316733824308</v>
       </c>
       <c r="E232">
-        <v>14.74613176489227</v>
+        <v>13.23919048257936</v>
       </c>
       <c r="F232">
-        <v>7.005065231319564</v>
+        <v>20.15820995923058</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.31320663735879</v>
+        <v>12.70670637871988</v>
       </c>
       <c r="C233">
-        <v>14.23361538792301</v>
+        <v>12.67511438604047</v>
       </c>
       <c r="D233">
-        <v>14.22216910661542</v>
+        <v>14.38590051292437</v>
       </c>
       <c r="E233">
-        <v>14.81271324679801</v>
+        <v>13.30313102097287</v>
       </c>
       <c r="F233">
-        <v>7.017489029969676</v>
+        <v>20.21888610742532</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.38373734348554</v>
+        <v>12.7409761751854</v>
       </c>
       <c r="C234">
-        <v>14.30218738912469</v>
+        <v>12.73287660328502</v>
       </c>
       <c r="D234">
-        <v>14.23362762233396</v>
+        <v>14.45503468645993</v>
       </c>
       <c r="E234">
-        <v>14.87924055546944</v>
+        <v>13.36705849072173</v>
       </c>
       <c r="F234">
-        <v>7.0297677096875</v>
+        <v>20.27927540898208</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.45424968412457</v>
+        <v>12.77519923775625</v>
       </c>
       <c r="C235">
-        <v>14.370729762791</v>
+        <v>12.79062494981394</v>
       </c>
       <c r="D235">
-        <v>14.2448035476986</v>
+        <v>14.52413669336699</v>
       </c>
       <c r="E235">
-        <v>14.94571444986992</v>
+        <v>13.43097315451712</v>
       </c>
       <c r="F235">
-        <v>7.041902689587808</v>
+        <v>20.33938009043294</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.52474376715519</v>
+        <v>12.80937792741237</v>
       </c>
       <c r="C236">
-        <v>14.43924285941568</v>
+        <v>12.84835999631184</v>
       </c>
       <c r="D236">
-        <v>14.25569994837535</v>
+        <v>14.59320688151871</v>
       </c>
       <c r="E236">
-        <v>15.01213568673516</v>
+        <v>13.49487527441643</v>
       </c>
       <c r="F236">
-        <v>7.053895375605558</v>
+        <v>20.39920236913483</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.5952197005116</v>
+        <v>12.84351458141278</v>
       </c>
       <c r="C237">
-        <v>14.50772702880819</v>
+        <v>12.90608231151161</v>
       </c>
       <c r="D237">
-        <v>14.26631985224007</v>
+        <v>14.66224559847227</v>
       </c>
       <c r="E237">
-        <v>15.07850502033927</v>
+        <v>13.55876511183015</v>
       </c>
       <c r="F237">
-        <v>7.065747160549683</v>
+        <v>20.4587444532403</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.66567759210541</v>
+        <v>12.87761151300572</v>
       </c>
       <c r="C238">
-        <v>14.57618262005501</v>
+        <v>12.9637924621807</v>
       </c>
       <c r="D238">
-        <v>14.27666625034995</v>
+        <v>14.73125319066418</v>
       </c>
       <c r="E238">
-        <v>15.14482320259807</v>
+        <v>13.6226429275987</v>
       </c>
       <c r="F238">
-        <v>7.07745942422254</v>
+        <v>20.51800854079116</v>
       </c>
     </row>
   </sheetData>
